--- a/raw_data/ETH-USD_4h_process.xlsx
+++ b/raw_data/ETH-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2353.18017578125</v>
+        <v>2241.11279296875</v>
       </c>
       <c r="C2">
-        <v>2392.608642578125</v>
+        <v>2244.399658203125</v>
       </c>
       <c r="D2">
-        <v>2351.741943359375</v>
+        <v>2197.614990234375</v>
       </c>
       <c r="E2">
-        <v>2377.968017578125</v>
+        <v>2207.349853515625</v>
       </c>
       <c r="F2">
-        <v>829151232</v>
+        <v>852338688</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2380.20068359375</v>
+        <v>2207.905517578125</v>
       </c>
       <c r="C3">
-        <v>2445.017578125</v>
+        <v>2228.541748046875</v>
       </c>
       <c r="D3">
-        <v>2380.1640625</v>
+        <v>2198.828369140625</v>
       </c>
       <c r="E3">
-        <v>2414.98681640625</v>
+        <v>2210.948486328125</v>
       </c>
       <c r="F3">
-        <v>2428127232</v>
+        <v>61300736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>2415.72412109375</v>
+        <v>2210.529052734375</v>
       </c>
       <c r="C4">
-        <v>2426.012939453125</v>
+        <v>2240.235107421875</v>
       </c>
       <c r="D4">
-        <v>2369.009521484375</v>
+        <v>2204.86572265625</v>
       </c>
       <c r="E4">
-        <v>2380.93212890625</v>
+        <v>2231.63623046875</v>
       </c>
       <c r="F4">
-        <v>1368125440</v>
+        <v>209416192</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2381.087158203125</v>
+        <v>2232.459716796875</v>
       </c>
       <c r="C5">
-        <v>2407.771240234375</v>
+        <v>2246.037841796875</v>
       </c>
       <c r="D5">
-        <v>2374.404052734375</v>
+        <v>2224.023681640625</v>
       </c>
       <c r="E5">
-        <v>2402.565185546875</v>
+        <v>2224.319580078125</v>
       </c>
       <c r="F5">
-        <v>194371584</v>
+        <v>217063424</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>2402.11181640625</v>
+        <v>2223.85205078125</v>
       </c>
       <c r="C6">
-        <v>2413.2802734375</v>
+        <v>2232.726318359375</v>
       </c>
       <c r="D6">
-        <v>2356.8798828125</v>
+        <v>2210.400634765625</v>
       </c>
       <c r="E6">
-        <v>2359.4130859375</v>
+        <v>2230.2783203125</v>
       </c>
       <c r="F6">
-        <v>290598912</v>
+        <v>113573888</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2358.151123046875</v>
+        <v>2230.4541015625</v>
       </c>
       <c r="C7">
-        <v>2381.806884765625</v>
+        <v>2285.132080078125</v>
       </c>
       <c r="D7">
-        <v>2350.78759765625</v>
+        <v>2227.12158203125</v>
       </c>
       <c r="E7">
-        <v>2366.490234375</v>
+        <v>2279.424072265625</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2364.034912109375</v>
+        <v>2279.092529296875</v>
       </c>
       <c r="C8">
-        <v>2364.034912109375</v>
+        <v>2294.608154296875</v>
       </c>
       <c r="D8">
-        <v>2338.703857421875</v>
+        <v>2262.54345703125</v>
       </c>
       <c r="E8">
-        <v>2346.867431640625</v>
+        <v>2277.6494140625</v>
       </c>
       <c r="F8">
-        <v>38159360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2346.84375</v>
+        <v>2277.673828125</v>
       </c>
       <c r="C9">
-        <v>2364.7763671875</v>
+        <v>2294.42041015625</v>
       </c>
       <c r="D9">
-        <v>2317.814208984375</v>
+        <v>2267.171875</v>
       </c>
       <c r="E9">
-        <v>2352.700439453125</v>
+        <v>2270.794677734375</v>
       </c>
       <c r="F9">
-        <v>181121024</v>
+        <v>110944256</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>2353.0224609375</v>
+        <v>2269.409423828125</v>
       </c>
       <c r="C10">
-        <v>2359.142333984375</v>
+        <v>2276.234375</v>
       </c>
       <c r="D10">
-        <v>2333.751220703125</v>
+        <v>2224.85693359375</v>
       </c>
       <c r="E10">
-        <v>2335.08740234375</v>
+        <v>2243.624267578125</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>684847104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>2334.900390625</v>
+        <v>2244.287353515625</v>
       </c>
       <c r="C11">
-        <v>2378.621337890625</v>
+        <v>2266.42724609375</v>
       </c>
       <c r="D11">
-        <v>2334.900390625</v>
+        <v>2237.958984375</v>
       </c>
       <c r="E11">
-        <v>2374.136962890625</v>
+        <v>2255.85888671875</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>50435072</v>
       </c>
       <c r="L11">
-        <v>51.71727689864498</v>
+        <v>62.22193474581762</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>2374.323974609375</v>
+        <v>2255.37841796875</v>
       </c>
       <c r="C12">
-        <v>2386.004638671875</v>
+        <v>2269.7099609375</v>
       </c>
       <c r="D12">
-        <v>2323.4931640625</v>
+        <v>2240.143798828125</v>
       </c>
       <c r="E12">
-        <v>2330.554443359375</v>
+        <v>2243.7314453125</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>345881600</v>
       </c>
       <c r="L12">
-        <v>38.40793941017594</v>
+        <v>54.11868330407314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>2329.17529296875</v>
+        <v>2243.491943359375</v>
       </c>
       <c r="C13">
-        <v>2334.31591796875</v>
+        <v>2254.317138671875</v>
       </c>
       <c r="D13">
-        <v>2291.22509765625</v>
+        <v>2221.690673828125</v>
       </c>
       <c r="E13">
-        <v>2317.389892578125</v>
+        <v>2224.0302734375</v>
       </c>
       <c r="F13">
-        <v>803664896</v>
+        <v>98905088</v>
       </c>
       <c r="L13">
-        <v>35.31922217256131</v>
+        <v>43.7143312272735</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>2317.808837890625</v>
+        <v>2227.599853515625</v>
       </c>
       <c r="C14">
-        <v>2317.808837890625</v>
+        <v>2240.345458984375</v>
       </c>
       <c r="D14">
-        <v>2262.975830078125</v>
+        <v>2209.537109375</v>
       </c>
       <c r="E14">
-        <v>2300.828857421875</v>
+        <v>2234.961669921875</v>
       </c>
       <c r="F14">
-        <v>288976896</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>31.71019602793619</v>
+        <v>49.74521980970694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>2300.399658203125</v>
+        <v>2235.500732421875</v>
       </c>
       <c r="C15">
-        <v>2309.198974609375</v>
+        <v>2276.7646484375</v>
       </c>
       <c r="D15">
-        <v>2289.486083984375</v>
+        <v>2235.500732421875</v>
       </c>
       <c r="E15">
-        <v>2299.253173828125</v>
+        <v>2268.27001953125</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>436543488</v>
       </c>
       <c r="L15">
-        <v>31.36712216753067</v>
+        <v>63.24507263121738</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,519 +1309,519 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2298.979248046875</v>
+        <v>2269.539794921875</v>
       </c>
       <c r="C16">
-        <v>2308.7509765625</v>
+        <v>2271.359375</v>
       </c>
       <c r="D16">
-        <v>2295.522705078125</v>
+        <v>2252.810302734375</v>
       </c>
       <c r="E16">
-        <v>2295.65576171875</v>
+        <v>2256.26611328125</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30.51904885169466</v>
+        <v>57.03347271897324</v>
       </c>
       <c r="M16">
-        <v>32.68172214802328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>58.11693420610342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>2295.92041015625</v>
+        <v>2255.88330078125</v>
       </c>
       <c r="C17">
-        <v>2296.98193359375</v>
+        <v>2256.294189453125</v>
       </c>
       <c r="D17">
-        <v>2270.011962890625</v>
+        <v>2219.781982421875</v>
       </c>
       <c r="E17">
-        <v>2288.203369140625</v>
+        <v>2234.9453125</v>
       </c>
       <c r="F17">
-        <v>25067520</v>
+        <v>120921088</v>
       </c>
       <c r="L17">
-        <v>28.71000127034149</v>
+        <v>47.67687422234587</v>
       </c>
       <c r="M17">
-        <v>31.26215506411958</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>50.36826531403508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>2288.451904296875</v>
+        <v>2235.008056640625</v>
       </c>
       <c r="C18">
-        <v>2316.0419921875</v>
+        <v>2240.4736328125</v>
       </c>
       <c r="D18">
-        <v>2283.980712890625</v>
+        <v>2231.313232421875</v>
       </c>
       <c r="E18">
-        <v>2313.94482421875</v>
+        <v>2240.145263671875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>42.05665638432065</v>
+        <v>49.93063857725359</v>
       </c>
       <c r="M18">
-        <v>40.82356306747091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>52.04751756418096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>2313.32275390625</v>
+        <v>2240.08154296875</v>
       </c>
       <c r="C19">
-        <v>2322.021484375</v>
+        <v>2249.20556640625</v>
       </c>
       <c r="D19">
-        <v>2298.13623046875</v>
+        <v>2230.80908203125</v>
       </c>
       <c r="E19">
-        <v>2298.970458984375</v>
+        <v>2247.72216796875</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.46624270633322</v>
+        <v>53.2328209743069</v>
       </c>
       <c r="M19">
-        <v>37.55128116829496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>54.4650830809243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>2299.66650390625</v>
+        <v>2247.79248046875</v>
       </c>
       <c r="C20">
-        <v>2305.066650390625</v>
+        <v>2254.493896484375</v>
       </c>
       <c r="D20">
-        <v>2285.495361328125</v>
+        <v>2240.03466796875</v>
       </c>
       <c r="E20">
-        <v>2293.631591796875</v>
+        <v>2246.835693359375</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>35.89478860471083</v>
+        <v>52.77469830096355</v>
       </c>
       <c r="M20">
-        <v>36.43007557886487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>54.12129208633095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>2291.9453125</v>
+        <v>2246.69189453125</v>
       </c>
       <c r="C21">
-        <v>2303.58447265625</v>
+        <v>2249.0029296875</v>
       </c>
       <c r="D21">
-        <v>2278.97119140625</v>
+        <v>2233.57421875</v>
       </c>
       <c r="E21">
-        <v>2283.6845703125</v>
+        <v>2240.89404296875</v>
       </c>
       <c r="F21">
-        <v>9974784</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2336.663232421875</v>
+        <v>2243.484289550781</v>
       </c>
       <c r="L21">
-        <v>32.99414176342874</v>
+        <v>49.55870197772725</v>
       </c>
       <c r="M21">
-        <v>34.37095975201654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>51.76287718270135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>2283.59033203125</v>
+        <v>2242.0126953125</v>
       </c>
       <c r="C22">
-        <v>2303.129150390625</v>
+        <v>2255.269775390625</v>
       </c>
       <c r="D22">
-        <v>2279.760498046875</v>
+        <v>2238.304931640625</v>
       </c>
       <c r="E22">
-        <v>2294.793701171875</v>
+        <v>2244.118408203125</v>
       </c>
       <c r="F22">
-        <v>117526016</v>
+        <v>37580800</v>
       </c>
       <c r="G22">
-        <v>2334.669445219494</v>
+        <v>2243.514485677083</v>
       </c>
       <c r="H22">
-        <v>2332.504516601562</v>
+        <v>2245.322717285156</v>
       </c>
       <c r="L22">
-        <v>39.17030342442717</v>
+        <v>51.36796571602438</v>
       </c>
       <c r="M22">
-        <v>38.54853836871419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>52.96081335038303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>2294.355712890625</v>
+        <v>2243.351318359375</v>
       </c>
       <c r="C23">
-        <v>2314.20361328125</v>
+        <v>2252.21923828125</v>
       </c>
       <c r="D23">
-        <v>2290.2939453125</v>
+        <v>2243.2763671875</v>
       </c>
       <c r="E23">
-        <v>2307.554443359375</v>
+        <v>2249.47314453125</v>
       </c>
       <c r="F23">
-        <v>84898304</v>
+        <v>2648064</v>
       </c>
       <c r="G23">
-        <v>2332.204445050392</v>
+        <v>2244.056181936553</v>
       </c>
       <c r="H23">
-        <v>2327.132897949219</v>
+        <v>2247.248950195312</v>
       </c>
       <c r="L23">
-        <v>45.64465810121256</v>
+        <v>54.42228580823807</v>
       </c>
       <c r="M23">
-        <v>43.03416940109698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>54.96121626916354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>2307.735595703125</v>
+        <v>2249.75</v>
       </c>
       <c r="C24">
-        <v>2318.512939453125</v>
+        <v>2253.421875</v>
       </c>
       <c r="D24">
-        <v>2292.72119140625</v>
+        <v>2233.39501953125</v>
       </c>
       <c r="E24">
-        <v>2298.9873046875</v>
+        <v>2239.072998046875</v>
       </c>
       <c r="F24">
-        <v>208198656</v>
+        <v>99232768</v>
       </c>
       <c r="G24">
-        <v>2329.184705017402</v>
+        <v>2243.60316521931</v>
       </c>
       <c r="H24">
-        <v>2323.035656738281</v>
+        <v>2247.620788574219</v>
       </c>
       <c r="L24">
-        <v>42.24837972845777</v>
+        <v>47.85516748624181</v>
       </c>
       <c r="M24">
-        <v>40.87685543417684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>50.47177491797339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>2298.596435546875</v>
+        <v>2238.590087890625</v>
       </c>
       <c r="C25">
-        <v>2307.942626953125</v>
+        <v>2257.1279296875</v>
       </c>
       <c r="D25">
-        <v>2291.328125</v>
+        <v>2224.625</v>
       </c>
       <c r="E25">
-        <v>2293.166015625</v>
+        <v>2232.016845703125</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>335339008</v>
       </c>
       <c r="G25">
-        <v>2325.910278709002</v>
+        <v>2242.549863445111</v>
       </c>
       <c r="H25">
-        <v>2317.565698242187</v>
+        <v>2248.005651855469</v>
       </c>
       <c r="L25">
-        <v>39.97467456023377</v>
+        <v>43.8192352046345</v>
       </c>
       <c r="M25">
-        <v>39.43041893135433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>47.62913507877259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2293.726806640625</v>
+        <v>2232.242919921875</v>
       </c>
       <c r="C26">
-        <v>2293.726806640625</v>
+        <v>2251.136962890625</v>
       </c>
       <c r="D26">
-        <v>2261.394287109375</v>
+        <v>2224.98486328125</v>
       </c>
       <c r="E26">
-        <v>2280.9482421875</v>
+        <v>2249.277587890625</v>
       </c>
       <c r="F26">
-        <v>319279616</v>
+        <v>233208832</v>
       </c>
       <c r="G26">
-        <v>2321.822820843411</v>
+        <v>2243.161474758339</v>
       </c>
       <c r="H26">
-        <v>2313.642456054688</v>
+        <v>2248.955615234375</v>
       </c>
       <c r="L26">
-        <v>35.46772361378186</v>
+        <v>54.40211312774387</v>
       </c>
       <c r="M26">
-        <v>36.51033522915998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>54.39552365312959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>2281.796630859375</v>
+        <v>2249.4716796875</v>
       </c>
       <c r="C27">
-        <v>2305.13232421875</v>
+        <v>2251.5625</v>
       </c>
       <c r="D27">
-        <v>2272.32470703125</v>
+        <v>2211.5625</v>
       </c>
       <c r="E27">
-        <v>2273.409423828125</v>
+        <v>2223.011474609375</v>
       </c>
       <c r="F27">
-        <v>199810560</v>
+        <v>505682432</v>
       </c>
       <c r="G27">
-        <v>2317.42160293293</v>
+        <v>2241.329656562979</v>
       </c>
       <c r="H27">
-        <v>2308.988415527344</v>
+        <v>2246.134985351563</v>
       </c>
       <c r="L27">
-        <v>32.89336011698351</v>
+        <v>41.1363840655011</v>
       </c>
       <c r="M27">
-        <v>34.79790493636763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>44.89069038295128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>2273.672119140625</v>
+        <v>2222.857666015625</v>
       </c>
       <c r="C28">
-        <v>2287.607177734375</v>
+        <v>2224.20654296875</v>
       </c>
       <c r="D28">
-        <v>2267.01806640625</v>
+        <v>2171.99365234375</v>
       </c>
       <c r="E28">
-        <v>2284.2470703125</v>
+        <v>2192.517822265625</v>
       </c>
       <c r="F28">
-        <v>135811072</v>
+        <v>1366494208</v>
       </c>
       <c r="G28">
-        <v>2314.405736331073</v>
+        <v>2236.892217081401</v>
       </c>
       <c r="H28">
-        <v>2305.857397460938</v>
+        <v>2241.878405761719</v>
       </c>
       <c r="L28">
-        <v>39.94325391687017</v>
+        <v>31.19986582181408</v>
       </c>
       <c r="M28">
-        <v>39.21190181762324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>36.84203600088169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>2284.491943359375</v>
+        <v>2191.9267578125</v>
       </c>
       <c r="C29">
-        <v>2305.056884765625</v>
+        <v>2229.950927734375</v>
       </c>
       <c r="D29">
-        <v>2280.91162109375</v>
+        <v>2189.673828125</v>
       </c>
       <c r="E29">
-        <v>2304.3388671875</v>
+        <v>2226.337646484375</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>943139840</v>
       </c>
       <c r="G29">
-        <v>2313.49056640893</v>
+        <v>2235.93271066349</v>
       </c>
       <c r="H29">
-        <v>2303.439318847656</v>
+        <v>2239.655554199219</v>
       </c>
       <c r="L29">
-        <v>50.737042004325</v>
+        <v>47.1331690644735</v>
       </c>
       <c r="M29">
-        <v>46.44961766815426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>47.98165019136334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>2304.215576171875</v>
+        <v>2224.92041015625</v>
       </c>
       <c r="C30">
-        <v>2317.313232421875</v>
+        <v>2241.53369140625</v>
       </c>
       <c r="D30">
-        <v>2296.636962890625</v>
+        <v>2209.498291015625</v>
       </c>
       <c r="E30">
-        <v>2314.70947265625</v>
+        <v>2238.75634765625</v>
       </c>
       <c r="F30">
-        <v>70464000</v>
+        <v>551863296</v>
       </c>
       <c r="G30">
-        <v>2313.601376067777</v>
+        <v>2236.189404935559</v>
       </c>
       <c r="H30">
-        <v>2302.420422363281</v>
+        <v>2239.412158203125</v>
       </c>
       <c r="L30">
-        <v>55.39245551586427</v>
+        <v>51.74929407395371</v>
       </c>
       <c r="M30">
-        <v>49.77378904885497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>51.37326594927053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>2315.025390625</v>
+        <v>2240.9580078125</v>
       </c>
       <c r="C31">
-        <v>2341.0185546875</v>
+        <v>2281.9990234375</v>
       </c>
       <c r="D31">
-        <v>2308.648681640625</v>
+        <v>2240.9580078125</v>
       </c>
       <c r="E31">
-        <v>2337.874267578125</v>
+        <v>2272.51123046875</v>
       </c>
       <c r="F31">
-        <v>370595840</v>
+        <v>1497425920</v>
       </c>
       <c r="G31">
-        <v>2315.808002568718</v>
+        <v>2239.49138907494</v>
       </c>
       <c r="H31">
-        <v>2300.607287597656</v>
+        <v>2240.244775390625</v>
       </c>
       <c r="I31">
-        <v>2324.109781901042</v>
+        <v>2241.2259765625</v>
       </c>
       <c r="L31">
-        <v>63.95271942009226</v>
+        <v>61.9172847508793</v>
       </c>
       <c r="M31">
-        <v>56.29934878321745</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>59.16641067041883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>2338.2451171875</v>
+        <v>2272.626953125</v>
       </c>
       <c r="C32">
-        <v>2351.240478515625</v>
+        <v>2358.135009765625</v>
       </c>
       <c r="D32">
-        <v>2325.806884765625</v>
+        <v>2262.998779296875</v>
       </c>
       <c r="E32">
-        <v>2350.616455078125</v>
+        <v>2357.36181640625</v>
       </c>
       <c r="F32">
-        <v>241026560</v>
+        <v>2787209216</v>
       </c>
       <c r="G32">
-        <v>2318.9724073423</v>
+        <v>2250.206882468695</v>
       </c>
       <c r="H32">
-        <v>2301.610388183594</v>
+        <v>2245.926293945312</v>
       </c>
       <c r="I32">
-        <v>2323.198063151042</v>
+        <v>2246.226375325521</v>
       </c>
       <c r="L32">
-        <v>67.77907160120439</v>
+        <v>76.13774625176792</v>
       </c>
       <c r="M32">
-        <v>59.42236540125234</v>
+        <v>71.52173382555661</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1829,37 +1829,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>2352.593505859375</v>
+        <v>2356.2939453125</v>
       </c>
       <c r="C33">
-        <v>2398.017333984375</v>
+        <v>2358.815673828125</v>
       </c>
       <c r="D33">
-        <v>2348.892333984375</v>
+        <v>2329.300048828125</v>
       </c>
       <c r="E33">
-        <v>2387.68359375</v>
+        <v>2333.7060546875</v>
       </c>
       <c r="F33">
-        <v>1603565568</v>
+        <v>532343808</v>
       </c>
       <c r="G33">
-        <v>2325.218878833909</v>
+        <v>2257.797716306769</v>
       </c>
       <c r="H33">
-        <v>2305.125073242188</v>
+        <v>2251.410083007812</v>
       </c>
       <c r="I33">
-        <v>2322.287955729167</v>
+        <v>2250.318294270833</v>
       </c>
       <c r="L33">
-        <v>76.08630926806296</v>
+        <v>68.15556275520706</v>
       </c>
       <c r="M33">
-        <v>66.84509903598756</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
+        <v>65.56541242267049</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1867,37 +1864,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>2387.800537109375</v>
+        <v>2332.8681640625</v>
       </c>
       <c r="C34">
-        <v>2391.62353515625</v>
+        <v>2338.13623046875</v>
       </c>
       <c r="D34">
-        <v>2376.08203125</v>
+        <v>2293.1064453125</v>
       </c>
       <c r="E34">
-        <v>2388.07275390625</v>
+        <v>2311.34228515625</v>
       </c>
       <c r="F34">
-        <v>554557952</v>
+        <v>141584384</v>
       </c>
       <c r="G34">
-        <v>2330.932867476849</v>
+        <v>2262.665404383994</v>
       </c>
       <c r="H34">
-        <v>2309.487268066406</v>
+        <v>2255.229113769531</v>
       </c>
       <c r="I34">
-        <v>2322.5259765625</v>
+        <v>2252.975162760417</v>
       </c>
       <c r="L34">
-        <v>76.15890925379907</v>
+        <v>61.3184399481161</v>
       </c>
       <c r="M34">
-        <v>66.91352982945649</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+        <v>60.44077798772945</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1905,37 +1899,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>2387.85791015625</v>
+        <v>2311.154296875</v>
       </c>
       <c r="C35">
-        <v>2431.21240234375</v>
+        <v>2318.65185546875</v>
       </c>
       <c r="D35">
-        <v>2383.34228515625</v>
+        <v>2300.447509765625</v>
       </c>
       <c r="E35">
-        <v>2391.601806640625</v>
+        <v>2307.5576171875</v>
       </c>
       <c r="F35">
-        <v>1791236096</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2336.448225582647</v>
+        <v>2266.746514638858</v>
       </c>
       <c r="H35">
-        <v>2314.104699707031</v>
+        <v>2257.193493652344</v>
       </c>
       <c r="I35">
-        <v>2322.160530598958</v>
+        <v>2255.749763997396</v>
       </c>
       <c r="L35">
-        <v>76.87513740890627</v>
+        <v>60.16927557242924</v>
       </c>
       <c r="M35">
-        <v>67.56726503879956</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
+        <v>59.59190479181947</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1943,34 +1934,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>2392.3095703125</v>
+        <v>2307.34521484375</v>
       </c>
       <c r="C36">
-        <v>2404.057861328125</v>
+        <v>2311.282958984375</v>
       </c>
       <c r="D36">
-        <v>2355.114990234375</v>
+        <v>2287.568115234375</v>
       </c>
       <c r="E36">
-        <v>2359.443115234375</v>
+        <v>2298.982421875</v>
       </c>
       <c r="F36">
-        <v>1384246272</v>
+        <v>39464960</v>
       </c>
       <c r="G36">
-        <v>2338.53867009644</v>
+        <v>2269.677051660326</v>
       </c>
       <c r="H36">
-        <v>2317.294067382812</v>
+        <v>2259.329309082031</v>
       </c>
       <c r="I36">
-        <v>2322.161531575521</v>
+        <v>2258.039900716146</v>
       </c>
       <c r="L36">
-        <v>58.77408302487279</v>
+        <v>57.42600635479315</v>
       </c>
       <c r="M36">
-        <v>56.59377007174415</v>
+        <v>57.61735974010977</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1978,34 +1969,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>2359.698974609375</v>
+        <v>2300.461181640625</v>
       </c>
       <c r="C37">
-        <v>2372.5810546875</v>
+        <v>2304.310546875</v>
       </c>
       <c r="D37">
-        <v>2352.64404296875</v>
+        <v>2243.21923828125</v>
       </c>
       <c r="E37">
-        <v>2369.9306640625</v>
+        <v>2258.805419921875</v>
       </c>
       <c r="F37">
-        <v>384224256</v>
+        <v>792427520</v>
       </c>
       <c r="G37">
-        <v>2341.392487729718</v>
+        <v>2268.688721502284</v>
       </c>
       <c r="H37">
-        <v>2321.380432128906</v>
+        <v>2260.522314453125</v>
       </c>
       <c r="I37">
-        <v>2322.276212565104</v>
+        <v>2257.352612304688</v>
       </c>
       <c r="L37">
-        <v>62.05225749121561</v>
+        <v>46.29955873788655</v>
       </c>
       <c r="M37">
-        <v>58.9360033929233</v>
+        <v>49.36436572845895</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2013,34 +2004,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>2369.468994140625</v>
+        <v>2258.490966796875</v>
       </c>
       <c r="C38">
-        <v>2379.81103515625</v>
+        <v>2277.92236328125</v>
       </c>
       <c r="D38">
-        <v>2352.31689453125</v>
+        <v>2247.077880859375</v>
       </c>
       <c r="E38">
-        <v>2355.747314453125</v>
+        <v>2271.4638671875</v>
       </c>
       <c r="F38">
-        <v>359303168</v>
+        <v>82337792</v>
       </c>
       <c r="G38">
-        <v>2342.697471977301</v>
+        <v>2268.941007473667</v>
       </c>
       <c r="H38">
-        <v>2323.470556640625</v>
+        <v>2262.088244628906</v>
       </c>
       <c r="I38">
-        <v>2322.572208658854</v>
+        <v>2257.146427408854</v>
       </c>
       <c r="L38">
-        <v>55.35528981842058</v>
+        <v>49.75048158525676</v>
       </c>
       <c r="M38">
-        <v>54.64170859451677</v>
+        <v>51.71125030744019</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2048,34 +2039,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>2355.9814453125</v>
+        <v>2271.66015625</v>
       </c>
       <c r="C39">
-        <v>2383.88330078125</v>
+        <v>2369.6416015625</v>
       </c>
       <c r="D39">
-        <v>2350.088134765625</v>
+        <v>2250.363525390625</v>
       </c>
       <c r="E39">
-        <v>2368.75048828125</v>
+        <v>2345.503662109375</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4352954368</v>
       </c>
       <c r="G39">
-        <v>2345.065928004932</v>
+        <v>2275.901248804186</v>
       </c>
       <c r="H39">
-        <v>2326.959558105469</v>
+        <v>2266.977319335937</v>
       </c>
       <c r="I39">
-        <v>2323.107210286458</v>
+        <v>2259.636726888021</v>
       </c>
       <c r="L39">
-        <v>59.82703998406455</v>
+        <v>64.68409798912552</v>
       </c>
       <c r="M39">
-        <v>57.68576640466617</v>
+        <v>62.6232912562909</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2083,34 +2074,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>2369.298095703125</v>
+        <v>2344.923583984375</v>
       </c>
       <c r="C40">
-        <v>2381.39697265625</v>
+        <v>2397.943359375</v>
       </c>
       <c r="D40">
-        <v>2359.957763671875</v>
+        <v>2341.943115234375</v>
       </c>
       <c r="E40">
-        <v>2364.0390625</v>
+        <v>2362.40869140625</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1364144128</v>
       </c>
       <c r="G40">
-        <v>2346.790758413575</v>
+        <v>2283.76556176801</v>
       </c>
       <c r="H40">
-        <v>2330.479931640625</v>
+        <v>2272.755969238281</v>
       </c>
       <c r="I40">
-        <v>2324.072265625</v>
+        <v>2263.596207682292</v>
       </c>
       <c r="L40">
-        <v>57.48021129892518</v>
+        <v>67.18881275430051</v>
       </c>
       <c r="M40">
-        <v>56.21370446409043</v>
+        <v>64.59077800062151</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2118,34 +2109,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>2364.207763671875</v>
+        <v>2362.46142578125</v>
       </c>
       <c r="C41">
-        <v>2385.11767578125</v>
+        <v>2391.80908203125</v>
       </c>
       <c r="D41">
-        <v>2307.43408203125</v>
+        <v>2359.2490234375</v>
       </c>
       <c r="E41">
-        <v>2307.43408203125</v>
+        <v>2370.99755859375</v>
       </c>
       <c r="F41">
-        <v>707609600</v>
+        <v>962203648</v>
       </c>
       <c r="G41">
-        <v>2343.212878742454</v>
+        <v>2291.695743297623</v>
       </c>
       <c r="H41">
-        <v>2331.667407226562</v>
+        <v>2279.261145019531</v>
       </c>
       <c r="I41">
-        <v>2321.848836263021</v>
+        <v>2267.434163411458</v>
       </c>
       <c r="L41">
-        <v>37.56388636596772</v>
+        <v>68.46708843769265</v>
       </c>
       <c r="M41">
-        <v>42.26037767689667</v>
+        <v>65.58206677723376</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2153,36 +2144,36 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>2308.31103515625</v>
+        <v>2370.595947265625</v>
       </c>
       <c r="C42">
-        <v>2308.31103515625</v>
+        <v>2427.9619140625</v>
       </c>
       <c r="D42">
-        <v>2113.92529296875</v>
+        <v>2365.077880859375</v>
       </c>
       <c r="E42">
-        <v>2238.021240234375</v>
+        <v>2400.073974609375</v>
       </c>
       <c r="F42">
-        <v>6368215040</v>
+        <v>2011353088</v>
       </c>
       <c r="G42">
-        <v>2333.650002514446</v>
+        <v>2301.548309780509</v>
       </c>
       <c r="H42">
-        <v>2328.828784179687</v>
+        <v>2287.058923339844</v>
       </c>
       <c r="I42">
-        <v>2318.764396158854</v>
+        <v>2272.645581054688</v>
       </c>
       <c r="L42">
-        <v>25.41533700637576</v>
+        <v>72.54127129967472</v>
       </c>
       <c r="M42">
-        <v>31.82743062860387</v>
-      </c>
-      <c r="N42" t="s">
+        <v>68.76957536774229</v>
+      </c>
+      <c r="O42" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2191,36 +2182,36 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>2241.11279296875</v>
+        <v>2403.018798828125</v>
       </c>
       <c r="C43">
-        <v>2244.399658203125</v>
+        <v>2451.658935546875</v>
       </c>
       <c r="D43">
-        <v>2197.614990234375</v>
+        <v>2353.93115234375</v>
       </c>
       <c r="E43">
-        <v>2207.349853515625</v>
+        <v>2447.97509765625</v>
       </c>
       <c r="F43">
-        <v>1620959232</v>
+        <v>2080397312</v>
       </c>
       <c r="G43">
-        <v>2322.168170787281</v>
+        <v>2314.859835951031</v>
       </c>
       <c r="H43">
-        <v>2323.8185546875</v>
+        <v>2296.984020996094</v>
       </c>
       <c r="I43">
-        <v>2315.096394856771</v>
+        <v>2280.110408528646</v>
       </c>
       <c r="L43">
-        <v>21.89527427224334</v>
+        <v>77.84622432577991</v>
       </c>
       <c r="M43">
-        <v>28.48151499586775</v>
-      </c>
-      <c r="N43" t="s">
+        <v>73.17681292057902</v>
+      </c>
+      <c r="O43" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2229,36 +2220,36 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>2207.905517578125</v>
+        <v>2449.445556640625</v>
       </c>
       <c r="C44">
-        <v>2228.541748046875</v>
+        <v>2480.114990234375</v>
       </c>
       <c r="D44">
-        <v>2198.828369140625</v>
+        <v>2403.98388671875</v>
       </c>
       <c r="E44">
-        <v>2210.948486328125</v>
+        <v>2478.56591796875</v>
       </c>
       <c r="F44">
-        <v>61300736</v>
+        <v>3183679488</v>
       </c>
       <c r="G44">
-        <v>2312.057290381903</v>
+        <v>2329.742207043551</v>
       </c>
       <c r="H44">
-        <v>2319.416613769531</v>
+        <v>2308.958666992187</v>
       </c>
       <c r="I44">
-        <v>2312.100382486979</v>
+        <v>2288.230550130208</v>
       </c>
       <c r="L44">
-        <v>23.29750876731208</v>
+        <v>80.54643836899356</v>
       </c>
       <c r="M44">
-        <v>29.41905473133355</v>
-      </c>
-      <c r="N44" t="s">
+        <v>75.5498285082446</v>
+      </c>
+      <c r="O44" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2267,34 +2258,37 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>2210.529052734375</v>
+        <v>2479.656982421875</v>
       </c>
       <c r="C45">
-        <v>2240.235107421875</v>
+        <v>2626.976806640625</v>
       </c>
       <c r="D45">
-        <v>2204.86572265625</v>
+        <v>2434.937744140625</v>
       </c>
       <c r="E45">
-        <v>2231.63623046875</v>
+        <v>2583.337890625</v>
       </c>
       <c r="F45">
-        <v>209416192</v>
+        <v>4588105728</v>
       </c>
       <c r="G45">
-        <v>2304.746284935252</v>
+        <v>2352.79636009641</v>
       </c>
       <c r="H45">
-        <v>2316.340124511719</v>
+        <v>2326.524719238281</v>
       </c>
       <c r="I45">
-        <v>2309.846484375</v>
+        <v>2298.7328125</v>
       </c>
       <c r="L45">
-        <v>31.27697310082145</v>
+        <v>86.76296380065907</v>
       </c>
       <c r="M45">
-        <v>34.71727416421544</v>
+        <v>81.56525086557507</v>
+      </c>
+      <c r="O45" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2302,34 +2296,37 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>2232.459716796875</v>
+        <v>2584.171630859375</v>
       </c>
       <c r="C46">
-        <v>2246.037841796875</v>
+        <v>2611.547607421875</v>
       </c>
       <c r="D46">
-        <v>2224.023681640625</v>
+        <v>2567.99365234375</v>
       </c>
       <c r="E46">
-        <v>2224.319580078125</v>
+        <v>2611.547607421875</v>
       </c>
       <c r="F46">
-        <v>217063424</v>
+        <v>699840512</v>
       </c>
       <c r="G46">
-        <v>2297.434766311877</v>
+        <v>2376.319200762361</v>
       </c>
       <c r="H46">
-        <v>2313.50869140625</v>
+        <v>2344.638220214844</v>
       </c>
       <c r="I46">
-        <v>2307.468611653646</v>
+        <v>2310.575528971354</v>
       </c>
       <c r="L46">
-        <v>30.03381473885818</v>
+        <v>87.93117093325887</v>
       </c>
       <c r="M46">
-        <v>33.75226973936712</v>
+        <v>82.79278371331283</v>
+      </c>
+      <c r="O46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2337,34 +2334,37 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>2223.85205078125</v>
+        <v>2613.7060546875</v>
       </c>
       <c r="C47">
-        <v>2232.726318359375</v>
+        <v>2629.548095703125</v>
       </c>
       <c r="D47">
-        <v>2210.400634765625</v>
+        <v>2574.2685546875</v>
       </c>
       <c r="E47">
-        <v>2230.2783203125</v>
+        <v>2587.505859375</v>
       </c>
       <c r="F47">
-        <v>113573888</v>
+        <v>1179027456</v>
       </c>
       <c r="G47">
-        <v>2291.329634857388</v>
+        <v>2395.517987908965</v>
       </c>
       <c r="H47">
-        <v>2311.352136230469</v>
+        <v>2362.862939453125</v>
       </c>
       <c r="I47">
-        <v>2305.537776692708</v>
+        <v>2322.327547200521</v>
       </c>
       <c r="L47">
-        <v>32.49220230690857</v>
+        <v>81.0712981471989</v>
       </c>
       <c r="M47">
-        <v>35.32886778099476</v>
+        <v>78.02432621607281</v>
+      </c>
+      <c r="O47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2372,4670 +2372,4658 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>2230.4541015625</v>
+        <v>2588.35986328125</v>
       </c>
       <c r="C48">
-        <v>2285.132080078125</v>
+        <v>2665.09619140625</v>
       </c>
       <c r="D48">
-        <v>2227.12158203125</v>
+        <v>2587.836669921875</v>
       </c>
       <c r="E48">
-        <v>2279.424072265625</v>
+        <v>2659.5625</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>898998272</v>
       </c>
       <c r="G48">
-        <v>2290.24731098541</v>
+        <v>2419.522034462695</v>
       </c>
       <c r="H48">
-        <v>2311.110986328125</v>
+        <v>2386.215173339844</v>
       </c>
       <c r="I48">
-        <v>2304.387084960938</v>
+        <v>2336.308121744792</v>
       </c>
       <c r="L48">
-        <v>49.08996654588419</v>
+        <v>85.01346448018347</v>
       </c>
       <c r="M48">
-        <v>46.61371952309022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>81.46919289701371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>2279.092529296875</v>
+        <v>2658.01123046875</v>
       </c>
       <c r="C49">
-        <v>2294.608154296875</v>
+        <v>2687.779052734375</v>
       </c>
       <c r="D49">
-        <v>2262.54345703125</v>
+        <v>2599.667724609375</v>
       </c>
       <c r="E49">
-        <v>2277.6494140625</v>
+        <v>2609.009521484375</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1758693376</v>
       </c>
       <c r="G49">
-        <v>2289.102047628781</v>
+        <v>2436.748169646484</v>
       </c>
       <c r="H49">
-        <v>2309.776513671875</v>
+        <v>2405.348767089844</v>
       </c>
       <c r="I49">
-        <v>2303.676383463542</v>
+        <v>2348.351033528646</v>
       </c>
       <c r="L49">
-        <v>48.60450654927467</v>
+        <v>73.01201482655195</v>
       </c>
       <c r="M49">
-        <v>46.29954171488673</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>72.84200011347689</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>2277.673828125</v>
+        <v>2612.11669921875</v>
       </c>
       <c r="C50">
-        <v>2294.42041015625</v>
+        <v>2623.264404296875</v>
       </c>
       <c r="D50">
-        <v>2267.171875</v>
+        <v>2571.20166015625</v>
       </c>
       <c r="E50">
-        <v>2270.794677734375</v>
+        <v>2621.840087890625</v>
       </c>
       <c r="F50">
-        <v>110944256</v>
+        <v>501372928</v>
       </c>
       <c r="G50">
-        <v>2287.437741274744</v>
+        <v>2453.574707668678</v>
       </c>
       <c r="H50">
-        <v>2307.580773925781</v>
+        <v>2424.502954101562</v>
       </c>
       <c r="I50">
-        <v>2302.915152994792</v>
+        <v>2360.851180013021</v>
       </c>
       <c r="L50">
-        <v>46.60191211642703</v>
+        <v>74.05771185499829</v>
       </c>
       <c r="M50">
-        <v>45.03686940176231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>73.60595173829913</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>2269.409423828125</v>
+        <v>2622.01318359375</v>
       </c>
       <c r="C51">
-        <v>2276.234375</v>
+        <v>2632.03076171875</v>
       </c>
       <c r="D51">
-        <v>2224.85693359375</v>
+        <v>2590.42919921875</v>
       </c>
       <c r="E51">
-        <v>2243.624267578125</v>
+        <v>2620.77783203125</v>
       </c>
       <c r="F51">
-        <v>684847104</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2283.454698211415</v>
+        <v>2468.774991701639</v>
       </c>
       <c r="H51">
-        <v>2302.868273925781</v>
+        <v>2441.916284179687</v>
       </c>
       <c r="I51">
-        <v>2301.579809570313</v>
+        <v>2373.513972981771</v>
       </c>
       <c r="L51">
-        <v>39.36878017052653</v>
+        <v>73.79140825427861</v>
       </c>
       <c r="M51">
-        <v>40.34066353686719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>73.42180622957898</v>
+      </c>
+      <c r="O51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>2244.287353515625</v>
+        <v>2619.177001953125</v>
       </c>
       <c r="C52">
-        <v>2266.42724609375</v>
+        <v>2623.2060546875</v>
       </c>
       <c r="D52">
-        <v>2237.958984375</v>
+        <v>2581.84033203125</v>
       </c>
       <c r="E52">
-        <v>2255.85888671875</v>
+        <v>2595.001708984375</v>
       </c>
       <c r="F52">
-        <v>50435072</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2280.945988075719</v>
+        <v>2480.250147818252</v>
       </c>
       <c r="H52">
-        <v>2298.130395507812</v>
+        <v>2453.798278808594</v>
       </c>
       <c r="I52">
-        <v>2300.281982421875</v>
+        <v>2385.210083007812</v>
       </c>
       <c r="L52">
-        <v>43.78849875613686</v>
+        <v>67.19531583568789</v>
       </c>
       <c r="M52">
-        <v>43.21219109101597</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>68.91630291127093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>2255.37841796875</v>
+        <v>2590.893798828125</v>
       </c>
       <c r="C53">
-        <v>2269.7099609375</v>
+        <v>2622.896728515625</v>
       </c>
       <c r="D53">
-        <v>2240.143798828125</v>
+        <v>2587.635986328125</v>
       </c>
       <c r="E53">
-        <v>2243.7314453125</v>
+        <v>2597.192138671875</v>
       </c>
       <c r="F53">
-        <v>345881600</v>
+        <v>170450944</v>
       </c>
       <c r="G53">
-        <v>2277.562847824517</v>
+        <v>2490.881237895854</v>
       </c>
       <c r="H53">
-        <v>2290.932788085937</v>
+        <v>2466.972583007812</v>
       </c>
       <c r="I53">
-        <v>2298.154549153646</v>
+        <v>2396.800716145833</v>
       </c>
       <c r="L53">
-        <v>40.49658838172</v>
+        <v>67.47327786657563</v>
       </c>
       <c r="M53">
-        <v>41.10043201237661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>69.08988911949834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>2243.491943359375</v>
+        <v>2596.236328125</v>
       </c>
       <c r="C54">
-        <v>2254.317138671875</v>
+        <v>2662.457275390625</v>
       </c>
       <c r="D54">
-        <v>2221.690673828125</v>
+        <v>2585.158447265625</v>
       </c>
       <c r="E54">
-        <v>2224.0302734375</v>
+        <v>2648.30322265625</v>
       </c>
       <c r="F54">
-        <v>98905088</v>
+        <v>557809664</v>
       </c>
       <c r="G54">
-        <v>2272.69625015297</v>
+        <v>2505.192327419526</v>
       </c>
       <c r="H54">
-        <v>2282.7306640625</v>
+        <v>2483.820629882813</v>
       </c>
       <c r="I54">
-        <v>2295.655981445313</v>
+        <v>2410.441723632813</v>
       </c>
       <c r="L54">
-        <v>35.60475807849842</v>
+        <v>73.39168999855677</v>
       </c>
       <c r="M54">
-        <v>37.86327464726568</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>72.89373326505289</v>
+      </c>
+      <c r="O54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>2227.599853515625</v>
+        <v>2647.697509765625</v>
       </c>
       <c r="C55">
-        <v>2240.345458984375</v>
+        <v>2710.421875</v>
       </c>
       <c r="D55">
-        <v>2209.537109375</v>
+        <v>2635.779052734375</v>
       </c>
       <c r="E55">
-        <v>2234.961669921875</v>
+        <v>2645.24365234375</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>631621632</v>
       </c>
       <c r="G55">
-        <v>2269.265833768325</v>
+        <v>2517.924266049001</v>
       </c>
       <c r="H55">
-        <v>2274.898657226563</v>
+        <v>2500.704931640625</v>
       </c>
       <c r="I55">
-        <v>2293.715836588542</v>
+        <v>2424.215950520833</v>
       </c>
       <c r="L55">
-        <v>40.11990160055758</v>
+        <v>72.50326587379247</v>
       </c>
       <c r="M55">
-        <v>40.65621055864995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>72.31999925592871</v>
+      </c>
+      <c r="O55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>2235.500732421875</v>
+        <v>2646.4541015625</v>
       </c>
       <c r="C56">
-        <v>2276.7646484375</v>
+        <v>2683.5322265625</v>
       </c>
       <c r="D56">
-        <v>2235.500732421875</v>
+        <v>2567.50146484375</v>
       </c>
       <c r="E56">
-        <v>2268.27001953125</v>
+        <v>2581.55712890625</v>
       </c>
       <c r="F56">
-        <v>436543488</v>
+        <v>1695272960</v>
       </c>
       <c r="G56">
-        <v>2269.175305201318</v>
+        <v>2523.709071763296</v>
       </c>
       <c r="H56">
-        <v>2270.340002441406</v>
+        <v>2514.833666992187</v>
       </c>
       <c r="I56">
-        <v>2293.293229166667</v>
+        <v>2435.291935221354</v>
       </c>
       <c r="L56">
-        <v>51.72330307756659</v>
+        <v>56.48986379260401</v>
       </c>
       <c r="M56">
-        <v>48.28401515468663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>61.473700875912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>2269.539794921875</v>
+        <v>2581.51416015625</v>
       </c>
       <c r="C57">
-        <v>2271.359375</v>
+        <v>2596.029296875</v>
       </c>
       <c r="D57">
-        <v>2252.810302734375</v>
+        <v>2460.925537109375</v>
       </c>
       <c r="E57">
-        <v>2256.26611328125</v>
+        <v>2524.314453125</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2655373312</v>
       </c>
       <c r="G57">
-        <v>2268.001742299493</v>
+        <v>2523.764106432542</v>
       </c>
       <c r="H57">
-        <v>2264.656774902344</v>
+        <v>2528.109118652344</v>
       </c>
       <c r="I57">
-        <v>2292.721785481771</v>
+        <v>2445.335367838542</v>
       </c>
       <c r="L57">
-        <v>47.95570073676841</v>
+        <v>46.17705088589574</v>
       </c>
       <c r="M57">
-        <v>45.98977069270792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>53.68079953297513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>2255.88330078125</v>
+        <v>2522.933837890625</v>
       </c>
       <c r="C58">
-        <v>2256.294189453125</v>
+        <v>2555.593017578125</v>
       </c>
       <c r="D58">
-        <v>2219.781982421875</v>
+        <v>2498.594482421875</v>
       </c>
       <c r="E58">
-        <v>2234.9453125</v>
+        <v>2547.4482421875</v>
       </c>
       <c r="F58">
-        <v>120921088</v>
+        <v>1180690432</v>
       </c>
       <c r="G58">
-        <v>2264.996612317721</v>
+        <v>2525.917209682993</v>
       </c>
       <c r="H58">
-        <v>2258.616674804688</v>
+        <v>2541.908337402344</v>
       </c>
       <c r="I58">
-        <v>2291.078393554687</v>
+        <v>2457.166381835938</v>
       </c>
       <c r="L58">
-        <v>41.86259894659831</v>
+        <v>50.30205520812914</v>
       </c>
       <c r="M58">
-        <v>42.15814231806429</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>56.10271514013672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>2235.008056640625</v>
+        <v>2547.89990234375</v>
       </c>
       <c r="C59">
-        <v>2240.4736328125</v>
+        <v>2559.842529296875</v>
       </c>
       <c r="D59">
-        <v>2231.313232421875</v>
+        <v>2540.0927734375</v>
       </c>
       <c r="E59">
-        <v>2240.145263671875</v>
+        <v>2549.862548828125</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>33402880</v>
       </c>
       <c r="G59">
-        <v>2262.737398804462</v>
+        <v>2528.094058696186</v>
       </c>
       <c r="H59">
-        <v>2252.186413574219</v>
+        <v>2552.126281738281</v>
       </c>
       <c r="I59">
-        <v>2288.938606770833</v>
+        <v>2467.950545247396</v>
       </c>
       <c r="L59">
-        <v>43.82108208889142</v>
+        <v>50.74525866627402</v>
       </c>
       <c r="M59">
-        <v>43.39677838956765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>56.35917608256669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>2240.08154296875</v>
+        <v>2550.68408203125</v>
       </c>
       <c r="C60">
-        <v>2249.20556640625</v>
+        <v>2559.052734375</v>
       </c>
       <c r="D60">
-        <v>2230.80908203125</v>
+        <v>2522.8798828125</v>
       </c>
       <c r="E60">
-        <v>2247.72216796875</v>
+        <v>2541.661376953125</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2261.372377819398</v>
+        <v>2529.327451264999</v>
       </c>
       <c r="H60">
-        <v>2246.370568847656</v>
+        <v>2561.088916015625</v>
       </c>
       <c r="I60">
-        <v>2286.705696614583</v>
+        <v>2478.047379557292</v>
       </c>
       <c r="L60">
-        <v>46.76102545695888</v>
+        <v>49.07285152646937</v>
       </c>
       <c r="M60">
-        <v>45.23698284480682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>55.17985437411252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>2247.79248046875</v>
+        <v>2542.18994140625</v>
       </c>
       <c r="C61">
-        <v>2254.493896484375</v>
+        <v>2564.75927734375</v>
       </c>
       <c r="D61">
-        <v>2240.03466796875</v>
+        <v>2532.31005859375</v>
       </c>
       <c r="E61">
-        <v>2246.835693359375</v>
+        <v>2564.75927734375</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2260.050861050304</v>
+        <v>2532.548526363068</v>
       </c>
       <c r="H61">
-        <v>2243.340649414063</v>
+        <v>2570.777001953125</v>
       </c>
       <c r="I61">
-        <v>2283.671077473958</v>
+        <v>2487.788981119792</v>
       </c>
       <c r="L61">
-        <v>46.44113927404756</v>
+        <v>53.88799931145111</v>
       </c>
       <c r="M61">
-        <v>45.05243779256597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>57.85469628369133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>2246.69189453125</v>
+        <v>2563.541259765625</v>
       </c>
       <c r="C62">
-        <v>2249.0029296875</v>
+        <v>2578.22216796875</v>
       </c>
       <c r="D62">
-        <v>2233.57421875</v>
+        <v>2551.5947265625</v>
       </c>
       <c r="E62">
-        <v>2240.89404296875</v>
+        <v>2573.824462890625</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2258.309332133799</v>
+        <v>2536.300884229209</v>
       </c>
       <c r="H62">
-        <v>2243.484289550781</v>
+        <v>2579.464526367187</v>
       </c>
       <c r="I62">
-        <v>2280.013663736979</v>
+        <v>2495.004402669271</v>
       </c>
       <c r="L62">
-        <v>44.16308446507903</v>
+        <v>55.73585910807933</v>
       </c>
       <c r="M62">
-        <v>43.76374692953946</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>58.8916136830775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>2242.0126953125</v>
+        <v>2571.2421875</v>
       </c>
       <c r="C63">
-        <v>2255.269775390625</v>
+        <v>2589.079833984375</v>
       </c>
       <c r="D63">
-        <v>2238.304931640625</v>
+        <v>2564.127685546875</v>
       </c>
       <c r="E63">
-        <v>2244.118408203125</v>
+        <v>2578.953857421875</v>
       </c>
       <c r="F63">
-        <v>37580800</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>2257.019248140102</v>
+        <v>2540.178427246724</v>
       </c>
       <c r="H63">
-        <v>2245.322717285156</v>
+        <v>2586.013464355469</v>
       </c>
       <c r="I63">
-        <v>2275.228157552083</v>
+        <v>2503.179329427083</v>
       </c>
       <c r="L63">
-        <v>45.78660420383832</v>
+        <v>56.83691522887459</v>
       </c>
       <c r="M63">
-        <v>44.68837838533334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>59.49882063330619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>2243.351318359375</v>
+        <v>2578.003662109375</v>
       </c>
       <c r="C64">
-        <v>2252.21923828125</v>
+        <v>2578.332275390625</v>
       </c>
       <c r="D64">
-        <v>2243.2763671875</v>
+        <v>2550.44384765625</v>
       </c>
       <c r="E64">
-        <v>2249.47314453125</v>
+        <v>2550.44384765625</v>
       </c>
       <c r="F64">
-        <v>2648064</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>2256.333238721115</v>
+        <v>2541.111647283954</v>
       </c>
       <c r="H64">
-        <v>2247.248950195312</v>
+        <v>2589.607360839844</v>
       </c>
       <c r="I64">
-        <v>2270.608170572917</v>
+        <v>2511.149381510417</v>
       </c>
       <c r="L64">
-        <v>48.57989100760549</v>
+        <v>49.18646778802606</v>
       </c>
       <c r="M64">
-        <v>46.26839143441309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>54.66560257516593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>2249.75</v>
+        <v>2549.56591796875</v>
       </c>
       <c r="C65">
-        <v>2253.421875</v>
+        <v>2554.541259765625</v>
       </c>
       <c r="D65">
-        <v>2233.39501953125</v>
+        <v>2543.159423828125</v>
       </c>
       <c r="E65">
-        <v>2239.072998046875</v>
+        <v>2549.808349609375</v>
       </c>
       <c r="F65">
-        <v>99232768</v>
+        <v>134833152</v>
       </c>
       <c r="G65">
-        <v>2254.764125932548</v>
+        <v>2541.902256586265</v>
       </c>
       <c r="H65">
-        <v>2247.620788574219</v>
+        <v>2587.930883789063</v>
       </c>
       <c r="I65">
-        <v>2265.523876953125</v>
+        <v>2519.224405924479</v>
       </c>
       <c r="L65">
-        <v>43.66416197127594</v>
+        <v>49.02100211940824</v>
       </c>
       <c r="M65">
-        <v>43.65976593828705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>54.55921334425146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>2238.590087890625</v>
+        <v>2549.915771484375</v>
       </c>
       <c r="C66">
-        <v>2257.1279296875</v>
+        <v>2552.784423828125</v>
       </c>
       <c r="D66">
-        <v>2224.625</v>
+        <v>2535.947998046875</v>
       </c>
       <c r="E66">
-        <v>2232.016845703125</v>
+        <v>2537.79443359375</v>
       </c>
       <c r="F66">
-        <v>335339008</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>2252.696191366236</v>
+        <v>2541.528818132399</v>
       </c>
       <c r="H66">
-        <v>2248.005651855469</v>
+        <v>2584.243225097656</v>
       </c>
       <c r="I66">
-        <v>2261.276334635417</v>
+        <v>2527.184806315104</v>
       </c>
       <c r="L66">
-        <v>40.53356462378432</v>
+        <v>45.74792275663878</v>
       </c>
       <c r="M66">
-        <v>41.93237754654315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>52.47984638081109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>2232.242919921875</v>
+        <v>2537.594482421875</v>
       </c>
       <c r="C67">
-        <v>2251.136962890625</v>
+        <v>2545.272705078125</v>
       </c>
       <c r="D67">
-        <v>2224.98486328125</v>
+        <v>2526.183837890625</v>
       </c>
       <c r="E67">
-        <v>2249.277587890625</v>
+        <v>2539.01904296875</v>
       </c>
       <c r="F67">
-        <v>233208832</v>
+        <v>28255232</v>
       </c>
       <c r="G67">
-        <v>2252.38540923209</v>
+        <v>2541.300656753886</v>
       </c>
       <c r="H67">
-        <v>2248.955615234375</v>
+        <v>2581.818884277344</v>
       </c>
       <c r="I67">
-        <v>2257.254565429687</v>
+        <v>2536.525260416667</v>
       </c>
       <c r="L67">
-        <v>50.33324496517408</v>
+        <v>46.16015660562545</v>
       </c>
       <c r="M67">
-        <v>47.4133806299814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>52.67782823122747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>2249.4716796875</v>
+        <v>2538.279541015625</v>
       </c>
       <c r="C68">
-        <v>2251.5625</v>
+        <v>2543.42333984375</v>
       </c>
       <c r="D68">
-        <v>2211.5625</v>
+        <v>2500.00244140625</v>
       </c>
       <c r="E68">
-        <v>2223.011474609375</v>
+        <v>2500.13818359375</v>
       </c>
       <c r="F68">
-        <v>505682432</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2249.715051539116</v>
+        <v>2537.558613739327</v>
       </c>
       <c r="H68">
-        <v>2246.134985351563</v>
+        <v>2573.847668457031</v>
       </c>
       <c r="I68">
-        <v>2252.830037434896</v>
+        <v>2544.147737630208</v>
       </c>
       <c r="L68">
-        <v>39.25792634969233</v>
+        <v>36.30641011198224</v>
       </c>
       <c r="M68">
-        <v>41.06175946667277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>46.10941967183337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>2222.857666015625</v>
+        <v>2500.33056640625</v>
       </c>
       <c r="C69">
-        <v>2224.20654296875</v>
+        <v>2530.05078125</v>
       </c>
       <c r="D69">
-        <v>2171.99365234375</v>
+        <v>2470.42431640625</v>
       </c>
       <c r="E69">
-        <v>2192.517822265625</v>
+        <v>2471.79150390625</v>
       </c>
       <c r="F69">
-        <v>1366494208</v>
+        <v>946142720</v>
       </c>
       <c r="G69">
-        <v>2244.515303423344</v>
+        <v>2531.579785572684</v>
       </c>
       <c r="H69">
-        <v>2241.878405761719</v>
+        <v>2566.986767578125</v>
       </c>
       <c r="I69">
-        <v>2246.955615234375</v>
+        <v>2548.357332356771</v>
       </c>
       <c r="L69">
-        <v>30.49426443580286</v>
+        <v>30.89679458216245</v>
       </c>
       <c r="M69">
-        <v>35.17105336494432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>41.99782650318354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>2191.9267578125</v>
+        <v>2471.6669921875</v>
       </c>
       <c r="C70">
-        <v>2229.950927734375</v>
+        <v>2512.95068359375</v>
       </c>
       <c r="D70">
-        <v>2189.673828125</v>
+        <v>2470.82080078125</v>
       </c>
       <c r="E70">
-        <v>2226.337646484375</v>
+        <v>2502.425537109375</v>
       </c>
       <c r="F70">
-        <v>943139840</v>
+        <v>932506624</v>
       </c>
       <c r="G70">
-        <v>2242.862789156165</v>
+        <v>2528.929399348747</v>
       </c>
       <c r="H70">
-        <v>2239.655554199219</v>
+        <v>2561.016040039062</v>
       </c>
       <c r="I70">
-        <v>2242.365568033854</v>
+        <v>2553.024560546875</v>
       </c>
       <c r="L70">
-        <v>45.63622986479102</v>
+        <v>41.49496377794467</v>
       </c>
       <c r="M70">
-        <v>44.65436011418475</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>47.45125352752353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>2224.92041015625</v>
+        <v>2502.600341796875</v>
       </c>
       <c r="C71">
-        <v>2241.53369140625</v>
+        <v>2520.1162109375</v>
       </c>
       <c r="D71">
-        <v>2209.498291015625</v>
+        <v>2502.600341796875</v>
       </c>
       <c r="E71">
-        <v>2238.75634765625</v>
+        <v>2512.504638671875</v>
       </c>
       <c r="F71">
-        <v>551863296</v>
+        <v>26685440</v>
       </c>
       <c r="G71">
-        <v>2242.489476292536</v>
+        <v>2527.436239287213</v>
       </c>
       <c r="H71">
-        <v>2239.412158203125</v>
+        <v>2555.602380371094</v>
       </c>
       <c r="I71">
-        <v>2240.076310221354</v>
+        <v>2557.741463216146</v>
       </c>
       <c r="L71">
-        <v>50.12475822809613</v>
+        <v>44.63776172559589</v>
       </c>
       <c r="M71">
-        <v>47.68086186122023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>49.14542586300655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>2240.9580078125</v>
+        <v>2512.522705078125</v>
       </c>
       <c r="C72">
-        <v>2281.9990234375</v>
+        <v>2541.246826171875</v>
       </c>
       <c r="D72">
-        <v>2240.9580078125</v>
+        <v>2506.943115234375</v>
       </c>
       <c r="E72">
-        <v>2272.51123046875</v>
+        <v>2537.79541015625</v>
       </c>
       <c r="F72">
-        <v>1497425920</v>
+        <v>211631104</v>
       </c>
       <c r="G72">
-        <v>2245.218726672192</v>
+        <v>2528.377982093489</v>
       </c>
       <c r="H72">
-        <v>2240.244775390625</v>
+        <v>2552.742065429688</v>
       </c>
       <c r="I72">
-        <v>2241.2259765625</v>
+        <v>2562.332177734375</v>
       </c>
       <c r="L72">
-        <v>60.17844908414227</v>
+        <v>51.92751106193769</v>
       </c>
       <c r="M72">
-        <v>54.89991140068711</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>53.2208472170896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>2272.626953125</v>
+        <v>2538.231689453125</v>
       </c>
       <c r="C73">
-        <v>2358.135009765625</v>
+        <v>2545.89697265625</v>
       </c>
       <c r="D73">
-        <v>2262.998779296875</v>
+        <v>2505.843994140625</v>
       </c>
       <c r="E73">
-        <v>2357.36181640625</v>
+        <v>2513.544921875</v>
       </c>
       <c r="F73">
-        <v>2787209216</v>
+        <v>713248768</v>
       </c>
       <c r="G73">
-        <v>2255.413553011652</v>
+        <v>2527.029522073626</v>
       </c>
       <c r="H73">
-        <v>2245.926293945312</v>
+        <v>2548.559704589844</v>
       </c>
       <c r="I73">
-        <v>2246.226375325521</v>
+        <v>2564.517838541667</v>
       </c>
       <c r="L73">
-        <v>74.63672709082235</v>
+        <v>45.46909268231457</v>
       </c>
       <c r="M73">
-        <v>67.16476758427312</v>
-      </c>
-      <c r="O73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>49.15325099249718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>2356.2939453125</v>
+        <v>2513.40869140625</v>
       </c>
       <c r="C74">
-        <v>2358.815673828125</v>
+        <v>2550.76904296875</v>
       </c>
       <c r="D74">
-        <v>2329.300048828125</v>
+        <v>2513.40869140625</v>
       </c>
       <c r="E74">
-        <v>2333.7060546875</v>
+        <v>2532.841552734375</v>
       </c>
       <c r="F74">
-        <v>532343808</v>
+        <v>301112320</v>
       </c>
       <c r="G74">
-        <v>2262.531053164002</v>
+        <v>2527.55788849733</v>
       </c>
       <c r="H74">
-        <v>2251.410083007812</v>
+        <v>2542.78662109375</v>
       </c>
       <c r="I74">
-        <v>2250.318294270833</v>
+        <v>2566.327026367188</v>
       </c>
       <c r="L74">
-        <v>67.00630307595171</v>
+        <v>50.93218921190735</v>
       </c>
       <c r="M74">
-        <v>62.09477960517846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>52.27871070521427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>2332.8681640625</v>
+        <v>2532.6240234375</v>
       </c>
       <c r="C75">
-        <v>2338.13623046875</v>
+        <v>2536.931884765625</v>
       </c>
       <c r="D75">
-        <v>2293.1064453125</v>
+        <v>2501.998291015625</v>
       </c>
       <c r="E75">
-        <v>2311.34228515625</v>
+        <v>2512.889404296875</v>
       </c>
       <c r="F75">
-        <v>141584384</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>2266.968437890569</v>
+        <v>2526.224389933652</v>
       </c>
       <c r="H75">
-        <v>2255.229113769531</v>
+        <v>2536.168908691406</v>
       </c>
       <c r="I75">
-        <v>2252.975162760417</v>
+        <v>2563.978743489583</v>
       </c>
       <c r="L75">
-        <v>60.43508587733553</v>
+        <v>45.61628919029049</v>
       </c>
       <c r="M75">
-        <v>57.66321561117556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>48.92970293481216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>2311.154296875</v>
+        <v>2510.627197265625</v>
       </c>
       <c r="C76">
-        <v>2318.65185546875</v>
+        <v>2533.543701171875</v>
       </c>
       <c r="D76">
-        <v>2300.447509765625</v>
+        <v>2504.250244140625</v>
       </c>
       <c r="E76">
-        <v>2307.5576171875</v>
+        <v>2533.543701171875</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>2270.658363281199</v>
+        <v>2526.8897818644</v>
       </c>
       <c r="H76">
-        <v>2257.193493652344</v>
+        <v>2533.768237304687</v>
       </c>
       <c r="I76">
-        <v>2255.749763997396</v>
+        <v>2561.37861328125</v>
       </c>
       <c r="L76">
-        <v>59.32738958120955</v>
+        <v>51.51025522940228</v>
       </c>
       <c r="M76">
-        <v>56.9228335195784</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>52.33383887413369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>2307.34521484375</v>
+        <v>2534.99462890625</v>
       </c>
       <c r="C77">
-        <v>2311.282958984375</v>
+        <v>2538.4013671875</v>
       </c>
       <c r="D77">
-        <v>2287.568115234375</v>
+        <v>2520.653564453125</v>
       </c>
       <c r="E77">
-        <v>2298.982421875</v>
+        <v>2524.467529296875</v>
       </c>
       <c r="F77">
-        <v>39464960</v>
+        <v>69196800</v>
       </c>
       <c r="G77">
-        <v>2273.233277698818</v>
+        <v>2526.669577085534</v>
       </c>
       <c r="H77">
-        <v>2259.329309082031</v>
+        <v>2533.775891113281</v>
       </c>
       <c r="I77">
-        <v>2258.039900716146</v>
+        <v>2559.277335611979</v>
       </c>
       <c r="L77">
-        <v>56.67934588115985</v>
+        <v>48.8908012951286</v>
       </c>
       <c r="M77">
-        <v>55.19362685542032</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>50.73350585855611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>2300.461181640625</v>
+        <v>2525.140380859375</v>
       </c>
       <c r="C78">
-        <v>2304.310546875</v>
+        <v>2545.76171875</v>
       </c>
       <c r="D78">
-        <v>2243.21923828125</v>
+        <v>2521.790283203125</v>
       </c>
       <c r="E78">
-        <v>2258.805419921875</v>
+        <v>2527.8720703125</v>
       </c>
       <c r="F78">
-        <v>792427520</v>
+        <v>292680704</v>
       </c>
       <c r="G78">
-        <v>2271.92165426455</v>
+        <v>2526.778894651622</v>
       </c>
       <c r="H78">
-        <v>2260.522314453125</v>
+        <v>2532.797082519531</v>
       </c>
       <c r="I78">
-        <v>2257.352612304688</v>
+        <v>2554.887654622396</v>
       </c>
       <c r="L78">
-        <v>45.88438945682397</v>
+        <v>49.96455145749813</v>
       </c>
       <c r="M78">
-        <v>47.85806015375093</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>51.33466305336683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>2258.490966796875</v>
+        <v>2528.337646484375</v>
       </c>
       <c r="C79">
-        <v>2277.92236328125</v>
+        <v>2568.28515625</v>
       </c>
       <c r="D79">
-        <v>2247.077880859375</v>
+        <v>2500.00390625</v>
       </c>
       <c r="E79">
-        <v>2271.4638671875</v>
+        <v>2558.458740234375</v>
       </c>
       <c r="F79">
-        <v>82337792</v>
+        <v>892066816</v>
       </c>
       <c r="G79">
-        <v>2271.880037257546</v>
+        <v>2529.65888061369</v>
       </c>
       <c r="H79">
-        <v>2262.088244628906</v>
+        <v>2533.226892089844</v>
       </c>
       <c r="I79">
-        <v>2257.146427408854</v>
+        <v>2553.202628580729</v>
       </c>
       <c r="L79">
-        <v>49.3065718936089</v>
+        <v>58.72817963770697</v>
       </c>
       <c r="M79">
-        <v>50.10796201784152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>56.47332652969566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>2271.66015625</v>
+        <v>2558.31005859375</v>
       </c>
       <c r="C80">
-        <v>2369.6416015625</v>
+        <v>2576.99462890625</v>
       </c>
       <c r="D80">
-        <v>2250.363525390625</v>
+        <v>2549.58349609375</v>
       </c>
       <c r="E80">
-        <v>2345.503662109375</v>
+        <v>2574.040283203125</v>
       </c>
       <c r="F80">
-        <v>4352954368</v>
+        <v>640326656</v>
       </c>
       <c r="G80">
-        <v>2278.573094062257</v>
+        <v>2533.693553576366</v>
       </c>
       <c r="H80">
-        <v>2266.977319335937</v>
+        <v>2534.845837402344</v>
       </c>
       <c r="I80">
-        <v>2259.636726888021</v>
+        <v>2551.609301757812</v>
       </c>
       <c r="L80">
-        <v>64.20257311187497</v>
+        <v>62.49303941611385</v>
       </c>
       <c r="M80">
-        <v>60.77046190698945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>58.85670214159002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>2344.923583984375</v>
+        <v>2573.60693359375</v>
       </c>
       <c r="C81">
-        <v>2397.943359375</v>
+        <v>2613.56689453125</v>
       </c>
       <c r="D81">
-        <v>2341.943115234375</v>
+        <v>2573.258056640625</v>
       </c>
       <c r="E81">
-        <v>2362.40869140625</v>
+        <v>2586.593017578125</v>
       </c>
       <c r="F81">
-        <v>1364144128</v>
+        <v>1020555264</v>
       </c>
       <c r="G81">
-        <v>2286.194512002621</v>
+        <v>2538.502595758344</v>
       </c>
       <c r="H81">
-        <v>2272.755969238281</v>
+        <v>2535.937524414062</v>
       </c>
       <c r="I81">
-        <v>2263.596207682292</v>
+        <v>2550.469807942708</v>
       </c>
       <c r="L81">
-        <v>66.71487311008694</v>
+        <v>65.35714641819753</v>
       </c>
       <c r="M81">
-        <v>62.72900951905213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>60.72261820944472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>2362.46142578125</v>
+        <v>2587.044677734375</v>
       </c>
       <c r="C82">
-        <v>2391.80908203125</v>
+        <v>2592.737060546875</v>
       </c>
       <c r="D82">
-        <v>2359.2490234375</v>
+        <v>2571.2626953125</v>
       </c>
       <c r="E82">
-        <v>2370.99755859375</v>
+        <v>2571.399658203125</v>
       </c>
       <c r="F82">
-        <v>962203648</v>
+        <v>201917440</v>
       </c>
       <c r="G82">
-        <v>2293.903879874542</v>
+        <v>2541.493237798778</v>
       </c>
       <c r="H82">
-        <v>2279.261145019531</v>
+        <v>2535.816284179688</v>
       </c>
       <c r="I82">
-        <v>2267.434163411458</v>
+        <v>2549.683072916667</v>
       </c>
       <c r="L82">
-        <v>67.99856734441373</v>
+        <v>59.20144343441788</v>
       </c>
       <c r="M82">
-        <v>63.72005192648037</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>57.33339023134901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>2370.595947265625</v>
+        <v>2571.415283203125</v>
       </c>
       <c r="C83">
-        <v>2427.9619140625</v>
+        <v>2574.228515625</v>
       </c>
       <c r="D83">
-        <v>2365.077880859375</v>
+        <v>2551.68798828125</v>
       </c>
       <c r="E83">
-        <v>2400.073974609375</v>
+        <v>2553.117919921875</v>
       </c>
       <c r="F83">
-        <v>2011353088</v>
+        <v>118915072</v>
       </c>
       <c r="G83">
-        <v>2303.555706668618</v>
+        <v>2542.550027082696</v>
       </c>
       <c r="H83">
-        <v>2287.058923339844</v>
+        <v>2534.524487304688</v>
       </c>
       <c r="I83">
-        <v>2272.645581054688</v>
+        <v>2548.213932291667</v>
       </c>
       <c r="L83">
-        <v>72.09701628211414</v>
+        <v>52.50695210685583</v>
       </c>
       <c r="M83">
-        <v>66.92627735796947</v>
-      </c>
-      <c r="O83" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>53.4663458419732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>2403.018798828125</v>
+        <v>2551.942626953125</v>
       </c>
       <c r="C84">
-        <v>2451.658935546875</v>
+        <v>2552.220947265625</v>
       </c>
       <c r="D84">
-        <v>2353.93115234375</v>
+        <v>2536.89013671875</v>
       </c>
       <c r="E84">
-        <v>2447.97509765625</v>
+        <v>2541.3046875</v>
       </c>
       <c r="F84">
-        <v>2080397312</v>
+        <v>176358400</v>
       </c>
       <c r="G84">
-        <v>2316.684742212948</v>
+        <v>2542.436814393361</v>
       </c>
       <c r="H84">
-        <v>2296.984020996094</v>
+        <v>2534.067529296875</v>
       </c>
       <c r="I84">
-        <v>2280.110408528646</v>
+        <v>2544.647314453125</v>
       </c>
       <c r="L84">
-        <v>77.44958239369504</v>
+        <v>48.51856741649755</v>
       </c>
       <c r="M84">
-        <v>71.40903907850962</v>
-      </c>
-      <c r="O84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>51.06934721420859</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>2449.445556640625</v>
+        <v>2541.196044921875</v>
       </c>
       <c r="C85">
-        <v>2480.114990234375</v>
+        <v>2570.381103515625</v>
       </c>
       <c r="D85">
-        <v>2403.98388671875</v>
+        <v>2534.391845703125</v>
       </c>
       <c r="E85">
-        <v>2478.56591796875</v>
+        <v>2537.813232421875</v>
       </c>
       <c r="F85">
-        <v>3183679488</v>
+        <v>272039936</v>
       </c>
       <c r="G85">
-        <v>2331.401212736203</v>
+        <v>2542.016488759589</v>
       </c>
       <c r="H85">
-        <v>2308.958666992187</v>
+        <v>2533.4677734375</v>
       </c>
       <c r="I85">
-        <v>2288.230550130208</v>
+        <v>2541.066300455729</v>
       </c>
       <c r="L85">
-        <v>80.18101645831295</v>
+        <v>47.32335260046477</v>
       </c>
       <c r="M85">
-        <v>73.8469356050298</v>
-      </c>
-      <c r="O85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>50.35086403822861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>2479.656982421875</v>
+        <v>2538.501220703125</v>
       </c>
       <c r="C86">
-        <v>2626.976806640625</v>
+        <v>2540.664306640625</v>
       </c>
       <c r="D86">
-        <v>2434.937744140625</v>
+        <v>2519.586181640625</v>
       </c>
       <c r="E86">
-        <v>2583.337890625</v>
+        <v>2532.627197265625</v>
       </c>
       <c r="F86">
-        <v>4588105728</v>
+        <v>118779904</v>
       </c>
       <c r="G86">
-        <v>2354.30454708973</v>
+        <v>2541.162916805592</v>
       </c>
       <c r="H86">
-        <v>2326.524719238281</v>
+        <v>2533.209411621094</v>
       </c>
       <c r="I86">
-        <v>2298.7328125</v>
+        <v>2539.435302734375</v>
       </c>
       <c r="L86">
-        <v>86.48741181731262</v>
+        <v>45.45234391607666</v>
       </c>
       <c r="M86">
-        <v>80.10422300045491</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>49.24268057802897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>2584.171630859375</v>
+        <v>2531.93994140625</v>
       </c>
       <c r="C87">
-        <v>2611.547607421875</v>
+        <v>2541.351806640625</v>
       </c>
       <c r="D87">
-        <v>2567.99365234375</v>
+        <v>2508.432861328125</v>
       </c>
       <c r="E87">
-        <v>2611.547607421875</v>
+        <v>2528.0263671875</v>
       </c>
       <c r="F87">
-        <v>699840512</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>2377.690279847197</v>
+        <v>2539.96868502213</v>
       </c>
       <c r="H87">
-        <v>2344.638220214844</v>
+        <v>2532.659777832031</v>
       </c>
       <c r="I87">
-        <v>2310.575528971354</v>
+        <v>2539.559033203125</v>
       </c>
       <c r="L87">
-        <v>87.67531681356668</v>
+        <v>43.7268946474706</v>
       </c>
       <c r="M87">
-        <v>81.39494514949443</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>48.22854889250034</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>2613.7060546875</v>
+        <v>2528.59326171875</v>
       </c>
       <c r="C88">
-        <v>2629.548095703125</v>
+        <v>2530.623046875</v>
       </c>
       <c r="D88">
-        <v>2574.2685546875</v>
+        <v>2509.83447265625</v>
       </c>
       <c r="E88">
-        <v>2587.505859375</v>
+        <v>2526.811767578125</v>
       </c>
       <c r="F88">
-        <v>1179027456</v>
+        <v>46738432</v>
       </c>
       <c r="G88">
-        <v>2396.764423440634</v>
+        <v>2538.772601618129</v>
       </c>
       <c r="H88">
-        <v>2362.862939453125</v>
+        <v>2533.99345703125</v>
       </c>
       <c r="I88">
-        <v>2322.327547200521</v>
+        <v>2538.871150716146</v>
       </c>
       <c r="L88">
-        <v>80.85984523157641</v>
+        <v>43.23939424616325</v>
       </c>
       <c r="M88">
-        <v>76.82087216139337</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>47.94780968773091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>2588.35986328125</v>
+        <v>2526.998046875</v>
       </c>
       <c r="C89">
-        <v>2665.09619140625</v>
+        <v>2535.622314453125</v>
       </c>
       <c r="D89">
-        <v>2587.836669921875</v>
+        <v>2523.863037109375</v>
       </c>
       <c r="E89">
-        <v>2659.5625</v>
+        <v>2535.36474609375</v>
       </c>
       <c r="F89">
-        <v>898998272</v>
+        <v>205673472</v>
       </c>
       <c r="G89">
-        <v>2420.655157673303</v>
+        <v>2538.462796570458</v>
       </c>
       <c r="H89">
-        <v>2386.215173339844</v>
+        <v>2537.172119140625</v>
       </c>
       <c r="I89">
-        <v>2336.308121744792</v>
+        <v>2538.387890625</v>
       </c>
       <c r="L89">
-        <v>84.83476381546691</v>
+        <v>47.84570454922141</v>
       </c>
       <c r="M89">
-        <v>80.37967900139623</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>50.1484373801902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>2658.01123046875</v>
+        <v>2535.630126953125</v>
       </c>
       <c r="C90">
-        <v>2687.779052734375</v>
+        <v>2546.263916015625</v>
       </c>
       <c r="D90">
-        <v>2599.667724609375</v>
+        <v>2513.52490234375</v>
       </c>
       <c r="E90">
-        <v>2609.009521484375</v>
+        <v>2518.652587890625</v>
       </c>
       <c r="F90">
-        <v>1758693376</v>
+        <v>363623424</v>
       </c>
       <c r="G90">
-        <v>2437.778281656128</v>
+        <v>2536.661868508655</v>
       </c>
       <c r="H90">
-        <v>2405.348767089844</v>
+        <v>2537.983471679688</v>
       </c>
       <c r="I90">
-        <v>2348.351033528646</v>
+        <v>2537.620930989583</v>
       </c>
       <c r="L90">
-        <v>72.88767363712306</v>
+        <v>40.60255839982922</v>
       </c>
       <c r="M90">
-        <v>72.02468547813494</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>46.05157051588798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>2612.11669921875</v>
+        <v>2520.047607421875</v>
       </c>
       <c r="C91">
-        <v>2623.264404296875</v>
+        <v>2532.37890625</v>
       </c>
       <c r="D91">
-        <v>2571.20166015625</v>
+        <v>2503.589111328125</v>
       </c>
       <c r="E91">
-        <v>2621.840087890625</v>
+        <v>2525.47705078125</v>
       </c>
       <c r="F91">
-        <v>501372928</v>
+        <v>104125440</v>
       </c>
       <c r="G91">
-        <v>2454.511173131991</v>
+        <v>2535.645066897073</v>
       </c>
       <c r="H91">
-        <v>2424.502954101562</v>
+        <v>2538.632092285156</v>
       </c>
       <c r="I91">
-        <v>2360.851180013021</v>
+        <v>2536.3115234375</v>
       </c>
       <c r="L91">
-        <v>73.93573189326335</v>
+        <v>44.46481378532278</v>
       </c>
       <c r="M91">
-        <v>72.79752968957089</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>47.92253233795314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>2622.01318359375</v>
+        <v>2523.75634765625</v>
       </c>
       <c r="C92">
-        <v>2632.03076171875</v>
+        <v>2523.75634765625</v>
       </c>
       <c r="D92">
-        <v>2590.42919921875</v>
+        <v>2431.653564453125</v>
       </c>
       <c r="E92">
-        <v>2620.77783203125</v>
+        <v>2433.3427734375</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1522138112</v>
       </c>
       <c r="G92">
-        <v>2469.626323941015</v>
+        <v>2526.344858400748</v>
       </c>
       <c r="H92">
-        <v>2441.916284179687</v>
+        <v>2533.409460449219</v>
       </c>
       <c r="I92">
-        <v>2373.513972981771</v>
+        <v>2531.628800455729</v>
       </c>
       <c r="L92">
-        <v>73.67048640457402</v>
+        <v>22.37117311363002</v>
       </c>
       <c r="M92">
-        <v>72.61866145934609</v>
-      </c>
-      <c r="O92" t="s">
+        <v>31.85863981292076</v>
+      </c>
+      <c r="N92" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>2619.177001953125</v>
+        <v>2436.442138671875</v>
       </c>
       <c r="C93">
-        <v>2623.2060546875</v>
+        <v>2469.34619140625</v>
       </c>
       <c r="D93">
-        <v>2581.84033203125</v>
+        <v>2426.135498046875</v>
       </c>
       <c r="E93">
-        <v>2595.001708984375</v>
+        <v>2466.853515625</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>781443072</v>
       </c>
       <c r="G93">
-        <v>2481.024086217684</v>
+        <v>2520.936554512043</v>
       </c>
       <c r="H93">
-        <v>2453.798278808594</v>
+        <v>2531.074890136719</v>
       </c>
       <c r="I93">
-        <v>2385.210083007812</v>
+        <v>2527.892122395833</v>
       </c>
       <c r="L93">
-        <v>67.0991785088643</v>
+        <v>35.48744438670801</v>
       </c>
       <c r="M93">
-        <v>68.23727665288303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>39.76710591805185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>2590.893798828125</v>
+        <v>2468.68896484375</v>
       </c>
       <c r="C94">
-        <v>2622.896728515625</v>
+        <v>2471.27294921875</v>
       </c>
       <c r="D94">
-        <v>2587.635986328125</v>
+        <v>2441.947021484375</v>
       </c>
       <c r="E94">
-        <v>2597.192138671875</v>
+        <v>2458.54541015625</v>
       </c>
       <c r="F94">
-        <v>170450944</v>
+        <v>310065152</v>
       </c>
       <c r="G94">
-        <v>2491.584818258973</v>
+        <v>2515.26463229788</v>
       </c>
       <c r="H94">
-        <v>2466.972583007812</v>
+        <v>2527.360083007813</v>
       </c>
       <c r="I94">
-        <v>2396.800716145833</v>
+        <v>2524.828841145833</v>
       </c>
       <c r="L94">
-        <v>67.37736850759785</v>
+        <v>33.89033835879062</v>
       </c>
       <c r="M94">
-        <v>68.41169249114859</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>38.57186691449609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>2596.236328125</v>
+        <v>2458.15966796875</v>
       </c>
       <c r="C95">
-        <v>2662.457275390625</v>
+        <v>2471.63525390625</v>
       </c>
       <c r="D95">
-        <v>2585.158447265625</v>
+        <v>2454.21142578125</v>
       </c>
       <c r="E95">
-        <v>2648.30322265625</v>
+        <v>2463.681884765625</v>
       </c>
       <c r="F95">
-        <v>557809664</v>
+        <v>87709696</v>
       </c>
       <c r="G95">
-        <v>2505.831945931453</v>
+        <v>2510.575291613129</v>
       </c>
       <c r="H95">
-        <v>2483.820629882813</v>
+        <v>2524.89970703125</v>
       </c>
       <c r="I95">
-        <v>2410.441723632813</v>
+        <v>2521.957958984375</v>
       </c>
       <c r="L95">
-        <v>73.30300993376325</v>
+        <v>35.89690545433144</v>
       </c>
       <c r="M95">
-        <v>72.24194710855642</v>
-      </c>
-      <c r="O95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>39.77701625509004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>2647.697509765625</v>
+        <v>2463.173095703125</v>
       </c>
       <c r="C96">
-        <v>2710.421875</v>
+        <v>2490.28564453125</v>
       </c>
       <c r="D96">
-        <v>2635.779052734375</v>
+        <v>2457.6484375</v>
       </c>
       <c r="E96">
-        <v>2645.24365234375</v>
+        <v>2487.74755859375</v>
       </c>
       <c r="F96">
-        <v>631621632</v>
+        <v>72700928</v>
       </c>
       <c r="G96">
-        <v>2518.50573742348</v>
+        <v>2508.500043156822</v>
       </c>
       <c r="H96">
-        <v>2500.704931640625</v>
+        <v>2522.609899902344</v>
       </c>
       <c r="I96">
-        <v>2424.215950520833</v>
+        <v>2520.289729817708</v>
       </c>
       <c r="L96">
-        <v>72.41716890992434</v>
+        <v>44.73790731202082</v>
       </c>
       <c r="M96">
-        <v>71.68162320662948</v>
-      </c>
-      <c r="O96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>45.20151561020479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>2646.4541015625</v>
+        <v>2487.008544921875</v>
       </c>
       <c r="C97">
-        <v>2683.5322265625</v>
+        <v>2494.718017578125</v>
       </c>
       <c r="D97">
-        <v>2567.50146484375</v>
+        <v>2459.920654296875</v>
       </c>
       <c r="E97">
-        <v>2581.55712890625</v>
+        <v>2461.96826171875</v>
       </c>
       <c r="F97">
-        <v>1695272960</v>
+        <v>509953024</v>
       </c>
       <c r="G97">
-        <v>2524.237682103731</v>
+        <v>2504.269881207906</v>
       </c>
       <c r="H97">
-        <v>2514.833666992187</v>
+        <v>2519.484936523438</v>
       </c>
       <c r="I97">
-        <v>2435.291935221354</v>
+        <v>2517.721370442708</v>
       </c>
       <c r="L97">
-        <v>56.44399122078148</v>
+        <v>38.36190814494049</v>
       </c>
       <c r="M97">
-        <v>61.06442833297372</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>40.94675963180883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>2581.51416015625</v>
+        <v>2461.004638671875</v>
       </c>
       <c r="C98">
-        <v>2596.029296875</v>
+        <v>2497.708984375</v>
       </c>
       <c r="D98">
-        <v>2460.925537109375</v>
+        <v>2414.7109375</v>
       </c>
       <c r="E98">
-        <v>2524.314453125</v>
+        <v>2490.777099609375</v>
       </c>
       <c r="F98">
-        <v>2655373312</v>
+        <v>529078272</v>
       </c>
       <c r="G98">
-        <v>2524.244661287483</v>
+        <v>2503.043264698949</v>
       </c>
       <c r="H98">
-        <v>2528.109118652344</v>
+        <v>2517.630187988281</v>
       </c>
       <c r="I98">
-        <v>2445.335367838542</v>
+        <v>2517.409334309896</v>
       </c>
       <c r="L98">
-        <v>46.15072480707239</v>
+        <v>47.72782598070382</v>
       </c>
       <c r="M98">
-        <v>53.40739680466179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>46.95572291669477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>2522.933837890625</v>
+        <v>2490.4501953125</v>
       </c>
       <c r="C99">
-        <v>2555.593017578125</v>
+        <v>2501.30517578125</v>
       </c>
       <c r="D99">
-        <v>2498.594482421875</v>
+        <v>2479.244140625</v>
       </c>
       <c r="E99">
-        <v>2547.4482421875</v>
+        <v>2489.24560546875</v>
       </c>
       <c r="F99">
-        <v>1180690432</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>2526.354077732939</v>
+        <v>2501.788932041658</v>
       </c>
       <c r="H99">
-        <v>2541.908337402344</v>
+        <v>2514.16953125</v>
       </c>
       <c r="I99">
-        <v>2457.166381835938</v>
+        <v>2517.991137695312</v>
       </c>
       <c r="L99">
-        <v>50.27361486923048</v>
+        <v>47.298006478841</v>
       </c>
       <c r="M99">
-        <v>55.81854383077163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>46.68376856799416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>2547.89990234375</v>
+        <v>2489.84765625</v>
       </c>
       <c r="C100">
-        <v>2559.842529296875</v>
+        <v>2489.84765625</v>
       </c>
       <c r="D100">
-        <v>2540.0927734375</v>
+        <v>2474.837890625</v>
       </c>
       <c r="E100">
-        <v>2549.862548828125</v>
+        <v>2480.5712890625</v>
       </c>
       <c r="F100">
-        <v>33402880</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>2528.491211468865</v>
+        <v>2499.860055407189</v>
       </c>
       <c r="H100">
-        <v>2552.126281738281</v>
+        <v>2509.496081542969</v>
       </c>
       <c r="I100">
-        <v>2467.950545247396</v>
+        <v>2517.262662760417</v>
       </c>
       <c r="L100">
-        <v>50.71663193121643</v>
+        <v>44.73117580472581</v>
       </c>
       <c r="M100">
-        <v>56.074024750646</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>45.09082545811755</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>2550.68408203125</v>
+        <v>2479.737060546875</v>
       </c>
       <c r="C101">
-        <v>2559.052734375</v>
+        <v>2484.66748046875</v>
       </c>
       <c r="D101">
-        <v>2522.8798828125</v>
+        <v>2474.380615234375</v>
       </c>
       <c r="E101">
-        <v>2541.661376953125</v>
+        <v>2477.305908203125</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2529.688499240161</v>
+        <v>2497.809678388638</v>
       </c>
       <c r="H101">
-        <v>2561.088916015625</v>
+        <v>2504.031726074219</v>
       </c>
       <c r="I101">
-        <v>2478.047379557292</v>
+        <v>2516.089371744792</v>
       </c>
       <c r="L101">
-        <v>49.04677216213635</v>
+        <v>43.72621895445157</v>
       </c>
       <c r="M101">
-        <v>54.91242309664358</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>44.47559281478615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>2542.18994140625</v>
+        <v>2477.29736328125</v>
       </c>
       <c r="C102">
-        <v>2564.75927734375</v>
+        <v>2478.551513671875</v>
       </c>
       <c r="D102">
-        <v>2532.31005859375</v>
+        <v>2462.577392578125</v>
       </c>
       <c r="E102">
-        <v>2564.75927734375</v>
+        <v>2468.96044921875</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2532.876751795033</v>
+        <v>2495.187021191375</v>
       </c>
       <c r="H102">
-        <v>2570.777001953125</v>
+        <v>2498.909765625</v>
       </c>
       <c r="I102">
-        <v>2487.788981119792</v>
+        <v>2513.794873046875</v>
       </c>
       <c r="L102">
-        <v>53.86019952198419</v>
+        <v>41.07306116422021</v>
       </c>
       <c r="M102">
-        <v>57.57786538864154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>42.86582428934805</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>2563.541259765625</v>
+        <v>2468.895263671875</v>
       </c>
       <c r="C103">
-        <v>2578.22216796875</v>
+        <v>2473.084228515625</v>
       </c>
       <c r="D103">
-        <v>2551.5947265625</v>
+        <v>2459.3818359375</v>
       </c>
       <c r="E103">
-        <v>2573.824462890625</v>
+        <v>2462.48291015625</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>2536.599270985541</v>
+        <v>2492.213920188182</v>
       </c>
       <c r="H103">
-        <v>2579.464526367187</v>
+        <v>2494.378015136719</v>
       </c>
       <c r="I103">
-        <v>2495.004402669271</v>
+        <v>2512.092805989583</v>
       </c>
       <c r="L103">
-        <v>55.70763102868214</v>
+        <v>39.00639963011528</v>
       </c>
       <c r="M103">
-        <v>58.61199682157599</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>41.60703524636991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>2571.2421875</v>
+        <v>2462.389892578125</v>
       </c>
       <c r="C104">
-        <v>2589.079833984375</v>
+        <v>2468.37255859375</v>
       </c>
       <c r="D104">
-        <v>2564.127685546875</v>
+        <v>2456.095703125</v>
       </c>
       <c r="E104">
-        <v>2578.953857421875</v>
+        <v>2462.529052734375</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>2540.449687934299</v>
+        <v>2489.5152958742</v>
       </c>
       <c r="H104">
-        <v>2586.013464355469</v>
+        <v>2490.439233398437</v>
       </c>
       <c r="I104">
-        <v>2503.179329427083</v>
+        <v>2509.749055989583</v>
       </c>
       <c r="L104">
-        <v>56.80849312553606</v>
+        <v>39.03098438062932</v>
       </c>
       <c r="M104">
-        <v>59.2177950709158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>41.6201869185064</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>2578.003662109375</v>
+        <v>2462.8505859375</v>
       </c>
       <c r="C105">
-        <v>2578.332275390625</v>
+        <v>2473.57080078125</v>
       </c>
       <c r="D105">
-        <v>2550.44384765625</v>
+        <v>2461.829833984375</v>
       </c>
       <c r="E105">
-        <v>2550.44384765625</v>
+        <v>2469.805419921875</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>2541.358247909022</v>
+        <v>2487.723488969443</v>
       </c>
       <c r="H105">
-        <v>2589.607360839844</v>
+        <v>2487.038842773437</v>
       </c>
       <c r="I105">
-        <v>2511.149381510417</v>
+        <v>2508.312923177083</v>
       </c>
       <c r="L105">
-        <v>49.16725465737213</v>
+        <v>43.09973522297602</v>
       </c>
       <c r="M105">
-        <v>54.44747793100469</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>43.77088348308175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>2549.56591796875</v>
+        <v>2469.798583984375</v>
       </c>
       <c r="C106">
-        <v>2554.541259765625</v>
+        <v>2478.798583984375</v>
       </c>
       <c r="D106">
-        <v>2543.159423828125</v>
+        <v>2463.6884765625</v>
       </c>
       <c r="E106">
-        <v>2549.808349609375</v>
+        <v>2473.762451171875</v>
       </c>
       <c r="F106">
-        <v>134833152</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>2542.12643897269</v>
+        <v>2486.454303715118</v>
       </c>
       <c r="H106">
-        <v>2587.930883789063</v>
+        <v>2484.09560546875</v>
       </c>
       <c r="I106">
-        <v>2519.224405924479</v>
+        <v>2506.32021484375</v>
       </c>
       <c r="L106">
-        <v>49.00196967433318</v>
+        <v>45.33173723435693</v>
       </c>
       <c r="M106">
-        <v>54.34239423817641</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>44.95841977746026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>2549.915771484375</v>
+        <v>2473.778564453125</v>
       </c>
       <c r="C107">
-        <v>2552.784423828125</v>
+        <v>2474.160888671875</v>
       </c>
       <c r="D107">
-        <v>2535.947998046875</v>
+        <v>2465.962646484375</v>
       </c>
       <c r="E107">
-        <v>2537.79443359375</v>
+        <v>2473.13623046875</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>2541.732620301877</v>
+        <v>2485.24356978363</v>
       </c>
       <c r="H107">
-        <v>2584.243225097656</v>
+        <v>2481.351098632812</v>
       </c>
       <c r="I107">
-        <v>2527.184806315104</v>
+        <v>2504.609171549479</v>
       </c>
       <c r="L107">
-        <v>45.73230353695845</v>
+        <v>45.01734584405839</v>
       </c>
       <c r="M107">
-        <v>52.28785955274834</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>44.79717750569313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>2537.594482421875</v>
+        <v>2473.4638671875</v>
       </c>
       <c r="C108">
-        <v>2545.272705078125</v>
+        <v>2479.760498046875</v>
       </c>
       <c r="D108">
-        <v>2526.183837890625</v>
+        <v>2471.651123046875</v>
       </c>
       <c r="E108">
-        <v>2539.01904296875</v>
+        <v>2471.954833984375</v>
       </c>
       <c r="F108">
-        <v>28255232</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>2541.485931453411</v>
+        <v>2484.035502892789</v>
       </c>
       <c r="H108">
-        <v>2581.818884277344</v>
+        <v>2478.608251953125</v>
       </c>
       <c r="I108">
-        <v>2536.525260416667</v>
+        <v>2502.745263671875</v>
       </c>
       <c r="L108">
-        <v>46.14438810163846</v>
+        <v>44.36433108900107</v>
       </c>
       <c r="M108">
-        <v>52.48505758979652</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>44.47312272614092</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>2538.279541015625</v>
+        <v>2472.072265625</v>
       </c>
       <c r="C109">
-        <v>2543.42333984375</v>
+        <v>2479.436767578125</v>
       </c>
       <c r="D109">
-        <v>2500.00244140625</v>
+        <v>2465.162109375</v>
       </c>
       <c r="E109">
-        <v>2500.13818359375</v>
+        <v>2467.17138671875</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>33596416</v>
       </c>
       <c r="G109">
-        <v>2537.727045284351</v>
+        <v>2482.502401422422</v>
       </c>
       <c r="H109">
-        <v>2573.847668457031</v>
+        <v>2475.198583984375</v>
       </c>
       <c r="I109">
-        <v>2544.147737630208</v>
+        <v>2499.702351888021</v>
       </c>
       <c r="L109">
-        <v>36.29904317761834</v>
+        <v>41.61462109673141</v>
       </c>
       <c r="M109">
-        <v>45.98636847997032</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>43.11321880015227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>2500.33056640625</v>
+        <v>2466.739501953125</v>
       </c>
       <c r="C110">
-        <v>2530.05078125</v>
+        <v>2476.889404296875</v>
       </c>
       <c r="D110">
-        <v>2470.42431640625</v>
+        <v>2465.468994140625</v>
       </c>
       <c r="E110">
-        <v>2471.79150390625</v>
+        <v>2472.605224609375</v>
       </c>
       <c r="F110">
-        <v>946142720</v>
+        <v>19326976</v>
       </c>
       <c r="G110">
-        <v>2531.732905159069</v>
+        <v>2481.602658075781</v>
       </c>
       <c r="H110">
-        <v>2566.986767578125</v>
+        <v>2472.896215820313</v>
       </c>
       <c r="I110">
-        <v>2548.357332356771</v>
+        <v>2496.321183268229</v>
       </c>
       <c r="L110">
-        <v>30.89287835702019</v>
+        <v>45.89980984111421</v>
       </c>
       <c r="M110">
-        <v>41.91183592009356</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>45.16448898833513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>2471.6669921875</v>
+        <v>2472.908203125</v>
       </c>
       <c r="C111">
-        <v>2512.95068359375</v>
+        <v>2474.13916015625</v>
       </c>
       <c r="D111">
-        <v>2470.82080078125</v>
+        <v>2452.377685546875</v>
       </c>
       <c r="E111">
-        <v>2502.425537109375</v>
+        <v>2452.377685546875</v>
       </c>
       <c r="F111">
-        <v>932506624</v>
+        <v>86493696</v>
       </c>
       <c r="G111">
-        <v>2529.068598972734</v>
+        <v>2478.945842391335</v>
       </c>
       <c r="H111">
-        <v>2561.016040039062</v>
+        <v>2469.241247558594</v>
       </c>
       <c r="I111">
-        <v>2553.024560546875</v>
+        <v>2491.847338867187</v>
       </c>
       <c r="L111">
-        <v>41.48774398046435</v>
+        <v>35.10863573647185</v>
       </c>
       <c r="M111">
-        <v>47.34184983139325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>39.4603110371105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>2502.600341796875</v>
+        <v>2454.9873046875</v>
       </c>
       <c r="C112">
-        <v>2520.1162109375</v>
+        <v>2463.447265625</v>
       </c>
       <c r="D112">
-        <v>2502.600341796875</v>
+        <v>2423.40087890625</v>
       </c>
       <c r="E112">
-        <v>2512.504638671875</v>
+        <v>2434.343994140625</v>
       </c>
       <c r="F112">
-        <v>26685440</v>
+        <v>817097728</v>
       </c>
       <c r="G112">
-        <v>2527.562784399928</v>
+        <v>2474.891128913998</v>
       </c>
       <c r="H112">
-        <v>2555.602380371094</v>
+        <v>2469.29130859375</v>
       </c>
       <c r="I112">
-        <v>2557.741463216146</v>
+        <v>2487.278816731771</v>
       </c>
       <c r="L112">
-        <v>44.62983410660524</v>
+        <v>28.40954076996946</v>
       </c>
       <c r="M112">
-        <v>49.03007214691581</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>35.19278771531677</v>
+      </c>
+      <c r="N112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>2512.522705078125</v>
+        <v>2435.10791015625</v>
       </c>
       <c r="C113">
-        <v>2541.246826171875</v>
+        <v>2435.736572265625</v>
       </c>
       <c r="D113">
-        <v>2506.943115234375</v>
+        <v>2405.7001953125</v>
       </c>
       <c r="E113">
-        <v>2537.79541015625</v>
+        <v>2419.2138671875</v>
       </c>
       <c r="F113">
-        <v>211631104</v>
+        <v>1276436480</v>
       </c>
       <c r="G113">
-        <v>2528.493023105048</v>
+        <v>2469.829559666135</v>
       </c>
       <c r="H113">
-        <v>2552.742065429688</v>
+        <v>2466.909326171875</v>
       </c>
       <c r="I113">
-        <v>2562.332177734375</v>
+        <v>2482.815348307292</v>
       </c>
       <c r="L113">
-        <v>51.91842040251935</v>
+        <v>24.07385091633969</v>
       </c>
       <c r="M113">
-        <v>53.09375361043175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>32.06006195655058</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>2538.231689453125</v>
+        <v>2418.556884765625</v>
       </c>
       <c r="C114">
-        <v>2545.89697265625</v>
+        <v>2418.556884765625</v>
       </c>
       <c r="D114">
-        <v>2505.843994140625</v>
+        <v>2361.660400390625</v>
       </c>
       <c r="E114">
-        <v>2513.544921875</v>
+        <v>2383.48828125</v>
       </c>
       <c r="F114">
-        <v>713248768</v>
+        <v>2043108352</v>
       </c>
       <c r="G114">
-        <v>2527.134104811407</v>
+        <v>2461.980352537395</v>
       </c>
       <c r="H114">
-        <v>2548.559704589844</v>
+        <v>2463.156469726563</v>
       </c>
       <c r="I114">
-        <v>2564.517838541667</v>
+        <v>2477.554801432292</v>
       </c>
       <c r="L114">
-        <v>45.46284422549179</v>
+        <v>17.12954172243784</v>
       </c>
       <c r="M114">
-        <v>49.05513186023314</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>26.14256129797285</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>2513.40869140625</v>
+        <v>2380.308349609375</v>
       </c>
       <c r="C115">
-        <v>2550.76904296875</v>
+        <v>2398.391845703125</v>
       </c>
       <c r="D115">
-        <v>2513.40869140625</v>
+        <v>2354.419189453125</v>
       </c>
       <c r="E115">
-        <v>2532.841552734375</v>
+        <v>2375.16162109375</v>
       </c>
       <c r="F115">
-        <v>301112320</v>
+        <v>1697377280</v>
       </c>
       <c r="G115">
-        <v>2527.652963713495</v>
+        <v>2454.087740587973</v>
       </c>
       <c r="H115">
-        <v>2542.78662109375</v>
+        <v>2458.730456542969</v>
       </c>
       <c r="I115">
-        <v>2566.327026367188</v>
+        <v>2472.133081054687</v>
       </c>
       <c r="L115">
-        <v>50.92526358961436</v>
+        <v>15.92503847608102</v>
       </c>
       <c r="M115">
-        <v>52.17266862518882</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>24.9850369972856</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>2532.6240234375</v>
+        <v>2375.744873046875</v>
       </c>
       <c r="C116">
-        <v>2536.931884765625</v>
+        <v>2381.584716796875</v>
       </c>
       <c r="D116">
-        <v>2501.998291015625</v>
+        <v>2307.217041015625</v>
       </c>
       <c r="E116">
-        <v>2512.889404296875</v>
+        <v>2318.564208984375</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2196265984</v>
       </c>
       <c r="G116">
-        <v>2526.310821948348</v>
+        <v>2441.7674195331</v>
       </c>
       <c r="H116">
-        <v>2536.168908691406</v>
+        <v>2450.2712890625</v>
       </c>
       <c r="I116">
-        <v>2563.978743489583</v>
+        <v>2464.997648111979</v>
       </c>
       <c r="L116">
-        <v>45.61122185060835</v>
+        <v>10.35639767063141</v>
       </c>
       <c r="M116">
-        <v>48.8443970513209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>18.86930650609792</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>2510.627197265625</v>
+        <v>2319.50634765625</v>
       </c>
       <c r="C117">
-        <v>2533.543701171875</v>
+        <v>2349.1376953125</v>
       </c>
       <c r="D117">
-        <v>2504.250244140625</v>
+        <v>2303.502685546875</v>
       </c>
       <c r="E117">
-        <v>2533.543701171875</v>
+        <v>2310.625732421875</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1295196160</v>
       </c>
       <c r="G117">
-        <v>2526.968356423214</v>
+        <v>2429.845447977534</v>
       </c>
       <c r="H117">
-        <v>2533.768237304687</v>
+        <v>2442.704162597656</v>
       </c>
       <c r="I117">
-        <v>2561.37861328125</v>
+        <v>2457.750960286458</v>
       </c>
       <c r="L117">
-        <v>51.50461431741272</v>
+        <v>9.814839594156805</v>
       </c>
       <c r="M117">
-        <v>52.24093850685585</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>18.19651300086807</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>2534.99462890625</v>
+        <v>2310.95166015625</v>
       </c>
       <c r="C118">
-        <v>2538.4013671875</v>
+        <v>2340.351318359375</v>
       </c>
       <c r="D118">
-        <v>2520.653564453125</v>
+        <v>2310.95166015625</v>
       </c>
       <c r="E118">
-        <v>2524.467529296875</v>
+        <v>2337.125732421875</v>
       </c>
       <c r="F118">
-        <v>69196800</v>
+        <v>228357120</v>
       </c>
       <c r="G118">
-        <v>2526.741008502637</v>
+        <v>2421.41638292702</v>
       </c>
       <c r="H118">
-        <v>2533.775891113281</v>
+        <v>2435.021594238281</v>
       </c>
       <c r="I118">
-        <v>2559.277335611979</v>
+        <v>2451.428092447917</v>
       </c>
       <c r="L118">
-        <v>48.88592076119531</v>
+        <v>24.61830652682321</v>
       </c>
       <c r="M118">
-        <v>50.64947871202541</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>27.49072936380761</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>2525.140380859375</v>
+        <v>2336.935302734375</v>
       </c>
       <c r="C119">
-        <v>2545.76171875</v>
+        <v>2348.03125</v>
       </c>
       <c r="D119">
-        <v>2521.790283203125</v>
+        <v>2315.671875</v>
       </c>
       <c r="E119">
-        <v>2527.8720703125</v>
+        <v>2319.51708984375</v>
       </c>
       <c r="F119">
-        <v>292680704</v>
+        <v>170760192</v>
       </c>
       <c r="G119">
-        <v>2526.843832303534</v>
+        <v>2412.152810828541</v>
       </c>
       <c r="H119">
-        <v>2532.797082519531</v>
+        <v>2426.535168457031</v>
       </c>
       <c r="I119">
-        <v>2554.887654622396</v>
+        <v>2444.233170572917</v>
       </c>
       <c r="L119">
-        <v>49.95958339408892</v>
+        <v>21.92767918484971</v>
       </c>
       <c r="M119">
-        <v>51.24941492284971</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>25.42370986637966</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>2528.337646484375</v>
+        <v>2320.116455078125</v>
       </c>
       <c r="C120">
-        <v>2568.28515625</v>
+        <v>2323.8125</v>
       </c>
       <c r="D120">
-        <v>2500.00390625</v>
+        <v>2204.156982421875</v>
       </c>
       <c r="E120">
-        <v>2558.458740234375</v>
+        <v>2211.531494140625</v>
       </c>
       <c r="F120">
-        <v>892066816</v>
+        <v>1575477248</v>
       </c>
       <c r="G120">
-        <v>2529.717914842701</v>
+        <v>2393.914509311457</v>
       </c>
       <c r="H120">
-        <v>2533.226892089844</v>
+        <v>2413.083178710937</v>
       </c>
       <c r="I120">
-        <v>2553.202628580729</v>
+        <v>2433.99580078125</v>
       </c>
       <c r="L120">
-        <v>58.72280212842363</v>
+        <v>12.50132325676315</v>
       </c>
       <c r="M120">
-        <v>56.37989861095164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>16.98795376490409</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>2558.31005859375</v>
+        <v>2215.85888671875</v>
       </c>
       <c r="C121">
-        <v>2576.99462890625</v>
+        <v>2226.863037109375</v>
       </c>
       <c r="D121">
-        <v>2549.58349609375</v>
+        <v>2167.282470703125</v>
       </c>
       <c r="E121">
-        <v>2574.040283203125</v>
+        <v>2215.64306640625</v>
       </c>
       <c r="F121">
-        <v>640326656</v>
+        <v>1623615488</v>
       </c>
       <c r="G121">
-        <v>2533.747221057285</v>
+        <v>2377.708014501893</v>
       </c>
       <c r="H121">
-        <v>2534.845837402344</v>
+        <v>2400.000036621094</v>
       </c>
       <c r="I121">
-        <v>2551.609301757812</v>
+        <v>2423.668001302083</v>
       </c>
       <c r="L121">
-        <v>62.48765285799655</v>
+        <v>14.08338327178904</v>
       </c>
       <c r="M121">
-        <v>58.76085313129305</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>18.10220742673965</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>2573.60693359375</v>
+        <v>2216.578125</v>
       </c>
       <c r="C122">
-        <v>2613.56689453125</v>
+        <v>2227.46630859375</v>
       </c>
       <c r="D122">
-        <v>2573.258056640625</v>
+        <v>2182.7607421875</v>
       </c>
       <c r="E122">
-        <v>2586.593017578125</v>
+        <v>2186.835205078125</v>
       </c>
       <c r="F122">
-        <v>1020555264</v>
+        <v>587156480</v>
       </c>
       <c r="G122">
-        <v>2538.551384377362</v>
+        <v>2360.355940917913</v>
       </c>
       <c r="H122">
-        <v>2535.937524414062</v>
+        <v>2385.893774414063</v>
       </c>
       <c r="I122">
-        <v>2550.469807942708</v>
+        <v>2415.451082356771</v>
       </c>
       <c r="L122">
-        <v>65.35182014008586</v>
+        <v>12.3265922199635</v>
       </c>
       <c r="M122">
-        <v>60.62548132944578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>16.43740054600428</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>2587.044677734375</v>
+        <v>2185.16357421875</v>
       </c>
       <c r="C123">
-        <v>2592.737060546875</v>
+        <v>2244.82861328125</v>
       </c>
       <c r="D123">
-        <v>2571.2626953125</v>
+        <v>2182.45166015625</v>
       </c>
       <c r="E123">
-        <v>2571.399658203125</v>
+        <v>2239.385009765625</v>
       </c>
       <c r="F123">
-        <v>201917440</v>
+        <v>195423232</v>
       </c>
       <c r="G123">
-        <v>2541.537591088794</v>
+        <v>2349.358583540432</v>
       </c>
       <c r="H123">
-        <v>2535.816284179688</v>
+        <v>2374.738879394531</v>
       </c>
       <c r="I123">
-        <v>2549.683072916667</v>
+        <v>2407.868798828125</v>
       </c>
       <c r="L123">
-        <v>59.19730210010034</v>
+        <v>30.1958648120275</v>
       </c>
       <c r="M123">
-        <v>57.2513024584368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>29.22420075139108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>2571.415283203125</v>
+        <v>2241.749755859375</v>
       </c>
       <c r="C124">
-        <v>2574.228515625</v>
+        <v>2252.022216796875</v>
       </c>
       <c r="D124">
-        <v>2551.68798828125</v>
+        <v>2211.629150390625</v>
       </c>
       <c r="E124">
-        <v>2553.117919921875</v>
+        <v>2211.629150390625</v>
       </c>
       <c r="F124">
-        <v>118915072</v>
+        <v>514077696</v>
       </c>
       <c r="G124">
-        <v>2542.590348255438</v>
+        <v>2336.837725981359</v>
       </c>
       <c r="H124">
-        <v>2534.524487304688</v>
+        <v>2362.193884277344</v>
       </c>
       <c r="I124">
-        <v>2548.213932291667</v>
+        <v>2399.638256835938</v>
       </c>
       <c r="L124">
-        <v>52.50393815205256</v>
+        <v>26.9339331448128</v>
       </c>
       <c r="M124">
-        <v>53.40004224790061</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>26.8842033992067</v>
+      </c>
+      <c r="N124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>2551.942626953125</v>
+        <v>2211.949951171875</v>
       </c>
       <c r="C125">
-        <v>2552.220947265625</v>
+        <v>2242.330322265625</v>
       </c>
       <c r="D125">
-        <v>2536.89013671875</v>
+        <v>2211.949951171875</v>
       </c>
       <c r="E125">
-        <v>2541.3046875</v>
+        <v>2232.305908203125</v>
       </c>
       <c r="F125">
-        <v>176358400</v>
+        <v>174450688</v>
       </c>
       <c r="G125">
-        <v>2542.473470004944</v>
+        <v>2327.334833456065</v>
       </c>
       <c r="H125">
-        <v>2534.067529296875</v>
+        <v>2350.318908691406</v>
       </c>
       <c r="I125">
-        <v>2544.647314453125</v>
+        <v>2391.925724283854</v>
       </c>
       <c r="L125">
-        <v>48.51614524001396</v>
+        <v>32.99968341528935</v>
       </c>
       <c r="M125">
-        <v>51.01208519136758</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>31.29744838353058</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>2541.196044921875</v>
+        <v>2232.243896484375</v>
       </c>
       <c r="C126">
-        <v>2570.381103515625</v>
+        <v>2261.384521484375</v>
       </c>
       <c r="D126">
-        <v>2534.391845703125</v>
+        <v>2227.4208984375</v>
       </c>
       <c r="E126">
-        <v>2537.813232421875</v>
+        <v>2242.69873046875</v>
       </c>
       <c r="F126">
-        <v>272039936</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>2542.049812042846</v>
+        <v>2319.6406422754</v>
       </c>
       <c r="H126">
-        <v>2533.4677734375</v>
+        <v>2338.76572265625</v>
       </c>
       <c r="I126">
-        <v>2541.066300455729</v>
+        <v>2383.757430013021</v>
       </c>
       <c r="L126">
-        <v>47.32109614867851</v>
+        <v>36.00386463246601</v>
       </c>
       <c r="M126">
-        <v>50.2962014615637</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>33.47111438160788</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>2538.501220703125</v>
+        <v>2242.859619140625</v>
       </c>
       <c r="C127">
-        <v>2540.664306640625</v>
+        <v>2246.695068359375</v>
       </c>
       <c r="D127">
-        <v>2519.586181640625</v>
+        <v>2218.5673828125</v>
       </c>
       <c r="E127">
-        <v>2532.627197265625</v>
+        <v>2233.191650390625</v>
       </c>
       <c r="F127">
-        <v>118779904</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>2541.193210699463</v>
+        <v>2311.781643013148</v>
       </c>
       <c r="H127">
-        <v>2533.209411621094</v>
+        <v>2326.768493652344</v>
       </c>
       <c r="I127">
-        <v>2539.435302734375</v>
+        <v>2376.13154296875</v>
       </c>
       <c r="L127">
-        <v>45.45033613624651</v>
+        <v>34.41578202880554</v>
       </c>
       <c r="M127">
-        <v>49.19192723820525</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>32.45939809281756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>2531.93994140625</v>
+        <v>2233.88818359375</v>
       </c>
       <c r="C128">
-        <v>2541.351806640625</v>
+        <v>2242.82373046875</v>
       </c>
       <c r="D128">
-        <v>2508.432861328125</v>
+        <v>2205.773193359375</v>
       </c>
       <c r="E128">
-        <v>2528.0263671875</v>
+        <v>2213.702392578125</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>2539.996224925648</v>
+        <v>2302.865347519055</v>
       </c>
       <c r="H128">
-        <v>2532.659777832031</v>
+        <v>2313.855871582031</v>
       </c>
       <c r="I128">
-        <v>2539.559033203125</v>
+        <v>2366.895719401042</v>
       </c>
       <c r="L128">
-        <v>43.72510455877805</v>
+        <v>31.23810788755242</v>
       </c>
       <c r="M128">
-        <v>48.18126653306678</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>30.42887778082782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>2528.59326171875</v>
+        <v>2212.047607421875</v>
       </c>
       <c r="C129">
-        <v>2530.623046875</v>
+        <v>2237.851318359375</v>
       </c>
       <c r="D129">
-        <v>2509.83447265625</v>
+        <v>2197.65673828125</v>
       </c>
       <c r="E129">
-        <v>2526.811767578125</v>
+        <v>2232.91357421875</v>
       </c>
       <c r="F129">
-        <v>46738432</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>2538.797637894055</v>
+        <v>2296.506095400845</v>
       </c>
       <c r="H129">
-        <v>2533.99345703125</v>
+        <v>2302.142980957031</v>
       </c>
       <c r="I129">
-        <v>2538.871150716146</v>
+        <v>2358.351318359375</v>
       </c>
       <c r="L129">
-        <v>43.23766364020828</v>
+        <v>37.62478650302211</v>
       </c>
       <c r="M129">
-        <v>47.90147020376557</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>34.76115838155042</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>2526.998046875</v>
+        <v>2233.969970703125</v>
       </c>
       <c r="C130">
-        <v>2535.622314453125</v>
+        <v>2237.9033203125</v>
       </c>
       <c r="D130">
-        <v>2523.863037109375</v>
+        <v>2206.927001953125</v>
       </c>
       <c r="E130">
-        <v>2535.36474609375</v>
+        <v>2216.318603515625</v>
       </c>
       <c r="F130">
-        <v>205673472</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>2538.4855568213</v>
+        <v>2289.21632341128</v>
       </c>
       <c r="H130">
-        <v>2537.172119140625</v>
+        <v>2289.328649902344</v>
       </c>
       <c r="I130">
-        <v>2538.387890625</v>
+        <v>2349.542895507812</v>
       </c>
       <c r="L130">
-        <v>47.84377119948955</v>
+        <v>34.50987597463382</v>
       </c>
       <c r="M130">
-        <v>50.09903491688825</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>32.85774789581203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>2535.630126953125</v>
+        <v>2216.34326171875</v>
       </c>
       <c r="C131">
-        <v>2546.263916015625</v>
+        <v>2225.863037109375</v>
       </c>
       <c r="D131">
-        <v>2513.52490234375</v>
+        <v>2203.441162109375</v>
       </c>
       <c r="E131">
-        <v>2518.652587890625</v>
+        <v>2225.74853515625</v>
       </c>
       <c r="F131">
-        <v>363623424</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>2536.682559645784</v>
+        <v>2283.446524479004</v>
       </c>
       <c r="H131">
-        <v>2537.983471679688</v>
+        <v>2277.997192382812</v>
       </c>
       <c r="I131">
-        <v>2537.620930989583</v>
+        <v>2341.157649739583</v>
       </c>
       <c r="L131">
-        <v>40.60137565258321</v>
+        <v>37.80168569906269</v>
       </c>
       <c r="M131">
-        <v>46.01477520681259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>35.03463951538787</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>2520.047607421875</v>
+        <v>2225.910400390625</v>
       </c>
       <c r="C132">
-        <v>2532.37890625</v>
+        <v>2240.380859375</v>
       </c>
       <c r="D132">
-        <v>2503.589111328125</v>
+        <v>2217.13671875</v>
       </c>
       <c r="E132">
-        <v>2525.47705078125</v>
+        <v>2230.82275390625</v>
       </c>
       <c r="F132">
-        <v>104125440</v>
+        <v>6474752</v>
       </c>
       <c r="G132">
-        <v>2535.663877021736</v>
+        <v>2278.662545336027</v>
       </c>
       <c r="H132">
-        <v>2538.632092285156</v>
+        <v>2267.821130371094</v>
       </c>
       <c r="I132">
-        <v>2536.3115234375</v>
+        <v>2333.2197265625</v>
       </c>
       <c r="L132">
-        <v>44.46347963065507</v>
+        <v>39.63836392467849</v>
       </c>
       <c r="M132">
-        <v>47.88322796211718</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>36.23271492609866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>2523.75634765625</v>
+        <v>2230.473388671875</v>
       </c>
       <c r="C133">
-        <v>2523.75634765625</v>
+        <v>2232.5263671875</v>
       </c>
       <c r="D133">
-        <v>2431.653564453125</v>
+        <v>2182.32958984375</v>
       </c>
       <c r="E133">
-        <v>2433.3427734375</v>
+        <v>2189.84814453125</v>
       </c>
       <c r="F133">
-        <v>1522138112</v>
+        <v>199968768</v>
       </c>
       <c r="G133">
-        <v>2526.361958514078</v>
+        <v>2270.588508899229</v>
       </c>
       <c r="H133">
-        <v>2533.409460449219</v>
+        <v>2256.352844238281</v>
       </c>
       <c r="I133">
-        <v>2531.628800455729</v>
+        <v>2324.131901041667</v>
       </c>
       <c r="L133">
-        <v>22.37115895950047</v>
+        <v>31.25418101194606</v>
       </c>
       <c r="M133">
-        <v>31.85409777330949</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>31.22504500510459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>2436.442138671875</v>
+        <v>2187.790283203125</v>
       </c>
       <c r="C134">
-        <v>2469.34619140625</v>
+        <v>2222.682861328125</v>
       </c>
       <c r="D134">
-        <v>2426.135498046875</v>
+        <v>2173.6865234375</v>
       </c>
       <c r="E134">
-        <v>2466.853515625</v>
+        <v>2217.568115234375</v>
       </c>
       <c r="F134">
-        <v>781443072</v>
+        <v>505402368</v>
       </c>
       <c r="G134">
-        <v>2520.952100069616</v>
+        <v>2265.768473111515</v>
       </c>
       <c r="H134">
-        <v>2531.074890136719</v>
+        <v>2248.0568359375</v>
       </c>
       <c r="I134">
-        <v>2527.892122395833</v>
+        <v>2315.966536458333</v>
       </c>
       <c r="L134">
-        <v>35.48710843200455</v>
+        <v>40.78645569181825</v>
       </c>
       <c r="M134">
-        <v>39.75368695869857</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>37.51665399294023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>2468.68896484375</v>
+        <v>2217.341796875</v>
       </c>
       <c r="C135">
-        <v>2471.27294921875</v>
+        <v>2228.600341796875</v>
       </c>
       <c r="D135">
-        <v>2441.947021484375</v>
+        <v>2212.36279296875</v>
       </c>
       <c r="E135">
-        <v>2458.54541015625</v>
+        <v>2218.220703125</v>
       </c>
       <c r="F135">
-        <v>310065152</v>
+        <v>71690240</v>
       </c>
       <c r="G135">
-        <v>2515.278764622946</v>
+        <v>2261.445948567286</v>
       </c>
       <c r="H135">
-        <v>2527.360083007813</v>
+        <v>2240.209790039063</v>
       </c>
       <c r="I135">
-        <v>2524.828841145833</v>
+        <v>2307.580379231771</v>
       </c>
       <c r="L135">
-        <v>33.89005522209455</v>
+        <v>41.00311537486669</v>
       </c>
       <c r="M135">
-        <v>38.56022932480264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>37.66123808403427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>2458.15966796875</v>
+        <v>2217.44189453125</v>
       </c>
       <c r="C136">
-        <v>2471.63525390625</v>
+        <v>2235.7421875</v>
       </c>
       <c r="D136">
-        <v>2454.21142578125</v>
+        <v>2211.151611328125</v>
       </c>
       <c r="E136">
-        <v>2463.681884765625</v>
+        <v>2221.72021484375</v>
       </c>
       <c r="F136">
-        <v>87709696</v>
+        <v>131557376</v>
       </c>
       <c r="G136">
-        <v>2510.588139181371</v>
+        <v>2257.834518228782</v>
       </c>
       <c r="H136">
-        <v>2524.89970703125</v>
+        <v>2235.367590332031</v>
       </c>
       <c r="I136">
-        <v>2521.957958984375</v>
+        <v>2299.178971354167</v>
       </c>
       <c r="L136">
-        <v>35.89658498491232</v>
+        <v>42.2772778594309</v>
       </c>
       <c r="M136">
-        <v>39.76424401671186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>38.48329599718709</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>2463.173095703125</v>
+        <v>2221.908935546875</v>
       </c>
       <c r="C137">
-        <v>2490.28564453125</v>
+        <v>2227.472900390625</v>
       </c>
       <c r="D137">
-        <v>2457.6484375</v>
+        <v>2196.14013671875</v>
       </c>
       <c r="E137">
-        <v>2487.74755859375</v>
+        <v>2196.14013671875</v>
       </c>
       <c r="F137">
-        <v>72700928</v>
+        <v>193323008</v>
       </c>
       <c r="G137">
-        <v>2508.511722764314</v>
+        <v>2252.225938091506</v>
       </c>
       <c r="H137">
-        <v>2522.609899902344</v>
+        <v>2229.643310546875</v>
       </c>
       <c r="I137">
-        <v>2520.289729817708</v>
+        <v>2289.945768229167</v>
       </c>
       <c r="L137">
-        <v>44.73745659513911</v>
+        <v>35.90122462027286</v>
       </c>
       <c r="M137">
-        <v>45.18431086246164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>34.86417780005952</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>2487.008544921875</v>
+        <v>2196.61865234375</v>
       </c>
       <c r="C138">
-        <v>2494.718017578125</v>
+        <v>2257.311767578125</v>
       </c>
       <c r="D138">
-        <v>2459.920654296875</v>
+        <v>2196.61865234375</v>
       </c>
       <c r="E138">
-        <v>2461.96826171875</v>
+        <v>2253.55078125</v>
       </c>
       <c r="F138">
-        <v>509953024</v>
+        <v>909838336</v>
       </c>
       <c r="G138">
-        <v>2504.280499032899</v>
+        <v>2252.346378378642</v>
       </c>
       <c r="H138">
-        <v>2519.484936523438</v>
+        <v>2225.464562988281</v>
       </c>
       <c r="I138">
-        <v>2517.721370442708</v>
+        <v>2282.665633138021</v>
       </c>
       <c r="L138">
-        <v>38.36162954036261</v>
+        <v>53.57825942870848</v>
       </c>
       <c r="M138">
-        <v>40.93513922224072</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>46.92768928518218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>2461.004638671875</v>
+        <v>2253.444091796875</v>
       </c>
       <c r="C139">
-        <v>2497.708984375</v>
+        <v>2261.320556640625</v>
       </c>
       <c r="D139">
-        <v>2414.7109375</v>
+        <v>2235.547607421875</v>
       </c>
       <c r="E139">
-        <v>2490.777099609375</v>
+        <v>2257.140869140625</v>
       </c>
       <c r="F139">
-        <v>529078272</v>
+        <v>254159872</v>
       </c>
       <c r="G139">
-        <v>2503.052917267124</v>
+        <v>2252.782241175186</v>
       </c>
       <c r="H139">
-        <v>2517.630187988281</v>
+        <v>2222.345751953125</v>
       </c>
       <c r="I139">
-        <v>2517.409334309896</v>
+        <v>2275.664615885417</v>
       </c>
       <c r="L139">
-        <v>47.72745532283862</v>
+        <v>54.461748570158</v>
       </c>
       <c r="M139">
-        <v>46.94025177169161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>47.58147582268432</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>2490.4501953125</v>
+        <v>2256.79931640625</v>
       </c>
       <c r="C140">
-        <v>2501.30517578125</v>
+        <v>2280.3837890625</v>
       </c>
       <c r="D140">
-        <v>2479.244140625</v>
+        <v>2252.574951171875</v>
       </c>
       <c r="E140">
-        <v>2489.24560546875</v>
+        <v>2257.345703125</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>287749120</v>
       </c>
       <c r="G140">
-        <v>2501.797707103635</v>
+        <v>2253.197101352442</v>
       </c>
       <c r="H140">
-        <v>2514.16953125</v>
+        <v>2224.636462402344</v>
       </c>
       <c r="I140">
-        <v>2517.991137695312</v>
+        <v>2268.489298502604</v>
       </c>
       <c r="L140">
-        <v>47.29764527065619</v>
+        <v>54.51731025291313</v>
       </c>
       <c r="M140">
-        <v>46.66861338194672</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>47.62112240723697</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>2489.84765625</v>
+        <v>2258.335205078125</v>
       </c>
       <c r="C141">
-        <v>2489.84765625</v>
+        <v>2271.376220703125</v>
       </c>
       <c r="D141">
-        <v>2474.837890625</v>
+        <v>2252.8056640625</v>
       </c>
       <c r="E141">
-        <v>2480.5712890625</v>
+        <v>2268.62548828125</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>4139008</v>
       </c>
       <c r="G141">
-        <v>2499.868032736259</v>
+        <v>2254.599681982334</v>
       </c>
       <c r="H141">
-        <v>2509.496081542969</v>
+        <v>2227.285583496094</v>
       </c>
       <c r="I141">
-        <v>2517.262662760417</v>
+        <v>2262.364225260417</v>
       </c>
       <c r="L141">
-        <v>44.73086871652687</v>
+        <v>57.71363386446558</v>
       </c>
       <c r="M141">
-        <v>45.07746804580149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>49.86968470768164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>2479.737060546875</v>
+        <v>2267.3193359375</v>
       </c>
       <c r="C142">
-        <v>2484.66748046875</v>
+        <v>2282.54443359375</v>
       </c>
       <c r="D142">
-        <v>2474.380615234375</v>
+        <v>2265.7958984375</v>
       </c>
       <c r="E142">
-        <v>2477.305908203125</v>
+        <v>2273.53125</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>89434112</v>
       </c>
       <c r="G142">
-        <v>2497.816930505974</v>
+        <v>2256.320733620303</v>
       </c>
       <c r="H142">
-        <v>2504.031726074219</v>
+        <v>2231.620385742187</v>
       </c>
       <c r="I142">
-        <v>2516.089371744792</v>
+        <v>2257.003800455729</v>
       </c>
       <c r="L142">
-        <v>43.72593197603372</v>
+        <v>59.11929652356555</v>
       </c>
       <c r="M142">
-        <v>44.46290554254858</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>50.85776881348144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>2477.29736328125</v>
+        <v>2274.1611328125</v>
       </c>
       <c r="C143">
-        <v>2478.551513671875</v>
+        <v>2275.992431640625</v>
       </c>
       <c r="D143">
-        <v>2462.577392578125</v>
+        <v>2254.471435546875</v>
       </c>
       <c r="E143">
-        <v>2468.96044921875</v>
+        <v>2257.2685546875</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>2495.193614025317</v>
+        <v>2256.406899171866</v>
       </c>
       <c r="H143">
-        <v>2498.909765625</v>
+        <v>2232.514562988281</v>
       </c>
       <c r="I143">
-        <v>2513.794873046875</v>
+        <v>2251.605623372396</v>
       </c>
       <c r="L143">
-        <v>41.07282435931766</v>
+        <v>52.59860618960527</v>
       </c>
       <c r="M143">
-        <v>42.85482663742578</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>47.51436261100709</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>2468.895263671875</v>
+        <v>2258.089111328125</v>
       </c>
       <c r="C144">
-        <v>2473.084228515625</v>
+        <v>2270.32080078125</v>
       </c>
       <c r="D144">
-        <v>2459.3818359375</v>
+        <v>2252.38525390625</v>
       </c>
       <c r="E144">
-        <v>2462.48291015625</v>
+        <v>2265.637939453125</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>2492.219913673584</v>
+        <v>2257.246084651981</v>
       </c>
       <c r="H144">
-        <v>2494.378015136719</v>
+        <v>2235.215002441406</v>
       </c>
       <c r="I144">
-        <v>2512.092805989583</v>
+        <v>2247.677278645833</v>
       </c>
       <c r="L144">
-        <v>39.00619897518382</v>
+        <v>55.44388707116099</v>
       </c>
       <c r="M144">
-        <v>41.59729448675441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>49.35944592532122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>2462.389892578125</v>
+        <v>2265.45263671875</v>
       </c>
       <c r="C145">
-        <v>2468.37255859375</v>
+        <v>2274.44091796875</v>
       </c>
       <c r="D145">
-        <v>2456.095703125</v>
+        <v>2262.20361328125</v>
       </c>
       <c r="E145">
-        <v>2462.529052734375</v>
+        <v>2269.876220703125</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>2489.520744497293</v>
+        <v>2258.394278838448</v>
       </c>
       <c r="H145">
-        <v>2490.439233398437</v>
+        <v>2237.093518066406</v>
       </c>
       <c r="I145">
-        <v>2509.749055989583</v>
+        <v>2244.167765299479</v>
       </c>
       <c r="L145">
-        <v>39.03078351839632</v>
+        <v>56.91717282573878</v>
       </c>
       <c r="M145">
-        <v>41.61043859317424</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>50.31203939454975</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>2462.8505859375</v>
+        <v>2270.013916015625</v>
       </c>
       <c r="C146">
-        <v>2473.57080078125</v>
+        <v>2276.891357421875</v>
       </c>
       <c r="D146">
-        <v>2461.829833984375</v>
+        <v>2263.039306640625</v>
       </c>
       <c r="E146">
-        <v>2469.805419921875</v>
+        <v>2273.150146484375</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>2487.728442263163</v>
+        <v>2259.735721351714</v>
       </c>
       <c r="H146">
-        <v>2487.038842773437</v>
+        <v>2238.616088867188</v>
       </c>
       <c r="I146">
-        <v>2508.312923177083</v>
+        <v>2242.653963216146</v>
       </c>
       <c r="L146">
-        <v>43.09950325455811</v>
+        <v>58.12057820927697</v>
       </c>
       <c r="M146">
-        <v>43.75995704712528</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>51.07760185417595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>2469.798583984375</v>
+        <v>2272.8681640625</v>
       </c>
       <c r="C147">
-        <v>2478.798583984375</v>
+        <v>2275.011474609375</v>
       </c>
       <c r="D147">
-        <v>2463.6884765625</v>
+        <v>2262.39111328125</v>
       </c>
       <c r="E147">
-        <v>2473.762451171875</v>
+        <v>2268.2470703125</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>2486.45880670941</v>
+        <v>2260.509480348149</v>
       </c>
       <c r="H147">
-        <v>2484.09560546875</v>
+        <v>2240.368859863281</v>
       </c>
       <c r="I147">
-        <v>2506.32021484375</v>
+        <v>2241.241341145833</v>
       </c>
       <c r="L147">
-        <v>45.33149090574214</v>
+        <v>55.50830811593141</v>
       </c>
       <c r="M147">
-        <v>44.94689318873242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>49.83913483492243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>2473.778564453125</v>
+        <v>2268.19287109375</v>
       </c>
       <c r="C148">
-        <v>2474.160888671875</v>
+        <v>2287.92236328125</v>
       </c>
       <c r="D148">
-        <v>2465.962646484375</v>
+        <v>2263.579345703125</v>
       </c>
       <c r="E148">
-        <v>2473.13623046875</v>
+        <v>2287.110595703125</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>224501760</v>
       </c>
       <c r="G148">
-        <v>2485.247663414804</v>
+        <v>2262.927763562238</v>
       </c>
       <c r="H148">
-        <v>2481.351098632812</v>
+        <v>2244.039270019531</v>
       </c>
       <c r="I148">
-        <v>2504.609171549479</v>
+        <v>2239.574169921875</v>
       </c>
       <c r="L148">
-        <v>45.01710450528984</v>
+        <v>62.75392558705214</v>
       </c>
       <c r="M148">
-        <v>44.78580462240442</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>54.41827184411542</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>2473.4638671875</v>
+        <v>2286.78759765625</v>
       </c>
       <c r="C149">
-        <v>2479.760498046875</v>
+        <v>2306.898681640625</v>
       </c>
       <c r="D149">
-        <v>2471.651123046875</v>
+        <v>2282.99560546875</v>
       </c>
       <c r="E149">
-        <v>2471.954833984375</v>
+        <v>2282.99560546875</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>504748032</v>
       </c>
       <c r="G149">
-        <v>2484.039224375675</v>
+        <v>2264.752112826466</v>
       </c>
       <c r="H149">
-        <v>2478.608251953125</v>
+        <v>2246.543371582031</v>
       </c>
       <c r="I149">
-        <v>2502.745263671875</v>
+        <v>2238.356787109375</v>
       </c>
       <c r="L149">
-        <v>44.36409996805259</v>
+        <v>60.34226300725501</v>
       </c>
       <c r="M149">
-        <v>44.46205630584913</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>53.27571314157854</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>2472.072265625</v>
+        <v>2282.98193359375</v>
       </c>
       <c r="C150">
-        <v>2479.436767578125</v>
+        <v>2299.99951171875</v>
       </c>
       <c r="D150">
-        <v>2465.162109375</v>
+        <v>2278.213134765625</v>
       </c>
       <c r="E150">
-        <v>2467.17138671875</v>
+        <v>2280.57666015625</v>
       </c>
       <c r="F150">
-        <v>33596416</v>
+        <v>329240064</v>
       </c>
       <c r="G150">
-        <v>2482.505784588681</v>
+        <v>2266.190708038265</v>
       </c>
       <c r="H150">
-        <v>2475.198583984375</v>
+        <v>2249.756274414062</v>
       </c>
       <c r="I150">
-        <v>2499.702351888021</v>
+        <v>2240.658292643229</v>
       </c>
       <c r="L150">
-        <v>41.61443083156821</v>
+        <v>58.84669056625508</v>
       </c>
       <c r="M150">
-        <v>43.10340285899522</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>52.57688473371265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>2466.739501953125</v>
+        <v>2281.04248046875</v>
       </c>
       <c r="C151">
-        <v>2476.889404296875</v>
+        <v>2285.050048828125</v>
       </c>
       <c r="D151">
-        <v>2465.468994140625</v>
+        <v>2263.94873046875</v>
       </c>
       <c r="E151">
-        <v>2472.605224609375</v>
+        <v>2269.465576171875</v>
       </c>
       <c r="F151">
-        <v>19326976</v>
+        <v>530732544</v>
       </c>
       <c r="G151">
-        <v>2481.605733681472</v>
+        <v>2266.488423323139</v>
       </c>
       <c r="H151">
-        <v>2472.896215820313</v>
+        <v>2251.942126464844</v>
       </c>
       <c r="I151">
-        <v>2496.321183268229</v>
+        <v>2242.452376302083</v>
       </c>
       <c r="J151">
-        <v>2403.312504882812</v>
+        <v>2386.289371744792</v>
       </c>
       <c r="L151">
-        <v>45.89959522859303</v>
+        <v>52.16552347939542</v>
       </c>
       <c r="M151">
-        <v>45.15370022768914</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>49.37321491421628</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>2472.908203125</v>
+        <v>2269.666259765625</v>
       </c>
       <c r="C152">
-        <v>2474.13916015625</v>
+        <v>2274.767822265625</v>
       </c>
       <c r="D152">
-        <v>2452.377685546875</v>
+        <v>2249.076416015625</v>
       </c>
       <c r="E152">
-        <v>2452.377685546875</v>
+        <v>2253.574951171875</v>
       </c>
       <c r="F152">
-        <v>86493696</v>
+        <v>367545344</v>
       </c>
       <c r="G152">
-        <v>2478.948638396508</v>
+        <v>2265.314471309387</v>
       </c>
       <c r="H152">
-        <v>2469.241247558594</v>
+        <v>2253.079736328125</v>
       </c>
       <c r="I152">
-        <v>2491.847338867187</v>
+        <v>2244.677034505208</v>
       </c>
       <c r="J152">
-        <v>2403.962374825383</v>
+        <v>2384.531564849786</v>
       </c>
       <c r="L152">
-        <v>35.10854537588458</v>
+        <v>44.10826438570196</v>
       </c>
       <c r="M152">
-        <v>39.45410732438678</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>45.13720654022558</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>2454.9873046875</v>
+        <v>2254.060546875</v>
       </c>
       <c r="C153">
-        <v>2463.447265625</v>
+        <v>2265.495361328125</v>
       </c>
       <c r="D153">
-        <v>2423.40087890625</v>
+        <v>2242.683837890625</v>
       </c>
       <c r="E153">
-        <v>2434.343994140625</v>
+        <v>2257.061279296875</v>
       </c>
       <c r="F153">
-        <v>817097728</v>
+        <v>316190208</v>
       </c>
       <c r="G153">
-        <v>2474.893670736882</v>
+        <v>2264.564181126432</v>
       </c>
       <c r="H153">
-        <v>2469.29130859375</v>
+        <v>2256.440393066406</v>
       </c>
       <c r="I153">
-        <v>2487.278816731771</v>
+        <v>2245.266243489583</v>
       </c>
       <c r="J153">
-        <v>2404.364780379227</v>
+        <v>2382.843216696768</v>
       </c>
       <c r="L153">
-        <v>28.40950472189452</v>
+        <v>46.16076111673112</v>
       </c>
       <c r="M153">
-        <v>35.18940534187936</v>
-      </c>
-      <c r="N153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>46.22723966959273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>2435.10791015625</v>
+        <v>2256.995361328125</v>
       </c>
       <c r="C154">
-        <v>2435.736572265625</v>
+        <v>2277.284912109375</v>
       </c>
       <c r="D154">
-        <v>2405.7001953125</v>
+        <v>2251.0791015625</v>
       </c>
       <c r="E154">
-        <v>2419.2138671875</v>
+        <v>2271.4326171875</v>
       </c>
       <c r="F154">
-        <v>1276436480</v>
+        <v>100519424</v>
       </c>
       <c r="G154">
-        <v>2469.831870414211</v>
+        <v>2265.188584404711</v>
       </c>
       <c r="H154">
-        <v>2466.909326171875</v>
+        <v>2259.133618164063</v>
       </c>
       <c r="I154">
-        <v>2482.815348307292</v>
+        <v>2247.259692382812</v>
       </c>
       <c r="J154">
-        <v>2404.561457025694</v>
+        <v>2381.367579617175</v>
       </c>
       <c r="L154">
-        <v>24.07384070056939</v>
+        <v>53.99537867771806</v>
       </c>
       <c r="M154">
-        <v>32.05841889603159</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>50.58565347464233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>2418.556884765625</v>
+        <v>2271.335693359375</v>
       </c>
       <c r="C155">
-        <v>2418.556884765625</v>
+        <v>2273.10888671875</v>
       </c>
       <c r="D155">
-        <v>2361.660400390625</v>
+        <v>2258.9169921875</v>
       </c>
       <c r="E155">
-        <v>2383.48828125</v>
+        <v>2259.47900390625</v>
       </c>
       <c r="F155">
-        <v>2043108352</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>2461.982453217464</v>
+        <v>2264.669531632123</v>
       </c>
       <c r="H155">
-        <v>2463.156469726563</v>
+        <v>2261.196533203125</v>
       </c>
       <c r="I155">
-        <v>2477.554801432292</v>
+        <v>2248.165462239583</v>
       </c>
       <c r="J155">
-        <v>2404.282342114758</v>
+        <v>2379.753161395838</v>
       </c>
       <c r="L155">
-        <v>17.12955762359413</v>
+        <v>47.52413656299516</v>
       </c>
       <c r="M155">
-        <v>26.14343706592396</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>47.16159406660648</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>2380.308349609375</v>
+        <v>2259.246826171875</v>
       </c>
       <c r="C156">
-        <v>2398.391845703125</v>
+        <v>2276.360107421875</v>
       </c>
       <c r="D156">
-        <v>2354.419189453125</v>
+        <v>2254.65771484375</v>
       </c>
       <c r="E156">
-        <v>2375.16162109375</v>
+        <v>2263.499755859375</v>
       </c>
       <c r="F156">
-        <v>1697377280</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>2454.089650297127</v>
+        <v>2264.563188380055</v>
       </c>
       <c r="H156">
-        <v>2458.730456542969</v>
+        <v>2263.285510253906</v>
       </c>
       <c r="I156">
-        <v>2472.133081054687</v>
+        <v>2248.858829752604</v>
       </c>
       <c r="J156">
-        <v>2403.896637200573</v>
+        <v>2378.213381190057</v>
       </c>
       <c r="L156">
-        <v>15.92505699541536</v>
+        <v>49.80074796284597</v>
       </c>
       <c r="M156">
-        <v>24.98628822767911</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>48.42614488142159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>2375.744873046875</v>
+        <v>2263.812255859375</v>
       </c>
       <c r="C157">
-        <v>2381.584716796875</v>
+        <v>2274.119873046875</v>
       </c>
       <c r="D157">
-        <v>2307.217041015625</v>
+        <v>2237.711669921875</v>
       </c>
       <c r="E157">
-        <v>2318.564208984375</v>
+        <v>2274.119873046875</v>
       </c>
       <c r="F157">
-        <v>2196265984</v>
+        <v>548297216</v>
       </c>
       <c r="G157">
-        <v>2441.769155632331</v>
+        <v>2265.43197789522</v>
       </c>
       <c r="H157">
-        <v>2450.2712890625</v>
+        <v>2267.184497070312</v>
       </c>
       <c r="I157">
-        <v>2464.997648111979</v>
+        <v>2250.223103841146</v>
       </c>
       <c r="J157">
-        <v>2402.766406363272</v>
+        <v>2376.834659227896</v>
       </c>
       <c r="L157">
-        <v>10.35642094758371</v>
+        <v>55.53319193514923</v>
       </c>
       <c r="M157">
-        <v>18.87190453305534</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>51.71330437115564</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>2319.50634765625</v>
+        <v>2275.03759765625</v>
       </c>
       <c r="C158">
-        <v>2349.1376953125</v>
+        <v>2310.924072265625</v>
       </c>
       <c r="D158">
-        <v>2303.502685546875</v>
+        <v>2266.486572265625</v>
       </c>
       <c r="E158">
-        <v>2310.625732421875</v>
+        <v>2295.655517578125</v>
       </c>
       <c r="F158">
-        <v>1295196160</v>
+        <v>1512455680</v>
       </c>
       <c r="G158">
-        <v>2429.847026249563</v>
+        <v>2268.179572411848</v>
       </c>
       <c r="H158">
-        <v>2442.704162597656</v>
+        <v>2269.289733886719</v>
       </c>
       <c r="I158">
-        <v>2457.750960286458</v>
+        <v>2252.954874674479</v>
       </c>
       <c r="J158">
-        <v>2401.546000085903</v>
+        <v>2375.759438808694</v>
       </c>
       <c r="L158">
-        <v>9.814862689248052</v>
+        <v>64.72314880522079</v>
       </c>
       <c r="M158">
-        <v>18.1991937814532</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>57.61308946071797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>2310.95166015625</v>
+        <v>2293.391845703125</v>
       </c>
       <c r="C159">
-        <v>2340.351318359375</v>
+        <v>2320.02734375</v>
       </c>
       <c r="D159">
-        <v>2310.95166015625</v>
+        <v>2293.178466796875</v>
       </c>
       <c r="E159">
-        <v>2337.125732421875</v>
+        <v>2316.76416015625</v>
       </c>
       <c r="F159">
-        <v>228357120</v>
+        <v>205047808</v>
       </c>
       <c r="G159">
-        <v>2421.417817719773</v>
+        <v>2272.596353115884</v>
       </c>
       <c r="H159">
-        <v>2435.021594238281</v>
+        <v>2272.2708984375</v>
       </c>
       <c r="I159">
-        <v>2451.428092447917</v>
+        <v>2255.749894205729</v>
       </c>
       <c r="J159">
-        <v>2400.692751507571</v>
+        <v>2374.978044389456</v>
       </c>
       <c r="L159">
-        <v>24.61830217550494</v>
+        <v>71.27043741901007</v>
       </c>
       <c r="M159">
-        <v>27.49095827718385</v>
-      </c>
-      <c r="N159" t="s">
+        <v>62.45530780866776</v>
+      </c>
+      <c r="O159" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>2336.935302734375</v>
+        <v>2317.435791015625</v>
       </c>
       <c r="C160">
-        <v>2348.03125</v>
+        <v>2327.162109375</v>
       </c>
       <c r="D160">
-        <v>2315.671875</v>
+        <v>2304.769287109375</v>
       </c>
       <c r="E160">
-        <v>2319.51708984375</v>
+        <v>2311.688720703125</v>
       </c>
       <c r="F160">
-        <v>170760192</v>
+        <v>345474048</v>
       </c>
       <c r="G160">
-        <v>2412.154115185589</v>
+        <v>2276.150204714724</v>
       </c>
       <c r="H160">
-        <v>2426.535168457031</v>
+        <v>2274.988049316406</v>
       </c>
       <c r="I160">
-        <v>2444.233170572917</v>
+        <v>2258.928898111979</v>
       </c>
       <c r="J160">
-        <v>2399.617577180898</v>
+        <v>2374.139775201558</v>
       </c>
       <c r="L160">
-        <v>21.92767913872715</v>
+        <v>67.86342800577546</v>
       </c>
       <c r="M160">
-        <v>25.4243632398279</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>60.6609066893247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>2320.116455078125</v>
+        <v>2311.449951171875</v>
       </c>
       <c r="C161">
-        <v>2323.8125</v>
+        <v>2313.435791015625</v>
       </c>
       <c r="D161">
-        <v>2204.156982421875</v>
+        <v>2301.78125</v>
       </c>
       <c r="E161">
-        <v>2211.531494140625</v>
+        <v>2309.452880859375</v>
       </c>
       <c r="F161">
-        <v>1575477248</v>
+        <v>86167552</v>
       </c>
       <c r="G161">
-        <v>2393.915695090592</v>
+        <v>2279.177720727874</v>
       </c>
       <c r="H161">
-        <v>2413.083178710937</v>
+        <v>2277.029418945312</v>
       </c>
       <c r="I161">
-        <v>2433.99580078125</v>
+        <v>2261.71904296875</v>
       </c>
       <c r="J161">
-        <v>2397.126370783014</v>
+        <v>2373.282995144046</v>
       </c>
       <c r="L161">
-        <v>12.50133087956286</v>
+        <v>66.29288302869456</v>
       </c>
       <c r="M161">
-        <v>16.98959488071315</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>59.84520518721854</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>2215.85888671875</v>
+        <v>2308.934326171875</v>
       </c>
       <c r="C162">
-        <v>2226.863037109375</v>
+        <v>2316.7373046875</v>
       </c>
       <c r="D162">
-        <v>2167.282470703125</v>
+        <v>2302.79638671875</v>
       </c>
       <c r="E162">
-        <v>2215.64306640625</v>
+        <v>2314.36572265625</v>
       </c>
       <c r="F162">
-        <v>1623615488</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>2377.709092482924</v>
+        <v>2282.37662999409</v>
       </c>
       <c r="H162">
-        <v>2400.000036621094</v>
+        <v>2279.071142578125</v>
       </c>
       <c r="I162">
-        <v>2423.668001302083</v>
+        <v>2264.50380859375</v>
       </c>
       <c r="J162">
-        <v>2394.722618407163</v>
+        <v>2372.502633919042</v>
       </c>
       <c r="L162">
-        <v>14.08338949619744</v>
+        <v>68.11686369640032</v>
       </c>
       <c r="M162">
-        <v>18.103669553097</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>61.08352447520503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>2216.578125</v>
+        <v>2313.97265625</v>
       </c>
       <c r="C163">
-        <v>2227.46630859375</v>
+        <v>2344.176025390625</v>
       </c>
       <c r="D163">
-        <v>2182.7607421875</v>
+        <v>2298.281982421875</v>
       </c>
       <c r="E163">
-        <v>2186.835205078125</v>
+        <v>2339.482177734375</v>
       </c>
       <c r="F163">
-        <v>587156480</v>
+        <v>767778816</v>
       </c>
       <c r="G163">
-        <v>2360.35692090067</v>
+        <v>2287.568043425025</v>
       </c>
       <c r="H163">
-        <v>2385.893774414063</v>
+        <v>2283.181823730469</v>
       </c>
       <c r="I163">
-        <v>2415.451082356771</v>
+        <v>2269.491609700521</v>
       </c>
       <c r="J163">
-        <v>2391.969142733931</v>
+        <v>2372.065276883483</v>
       </c>
       <c r="L163">
-        <v>12.32659889310146</v>
+        <v>75.68449550562211</v>
       </c>
       <c r="M163">
-        <v>16.43894117698156</v>
-      </c>
-      <c r="N163" t="s">
+        <v>66.73201017865209</v>
+      </c>
+      <c r="O163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>2185.16357421875</v>
+        <v>2340.057861328125</v>
       </c>
       <c r="C164">
-        <v>2244.82861328125</v>
+        <v>2379.706787109375</v>
       </c>
       <c r="D164">
-        <v>2182.45166015625</v>
+        <v>2337.060546875</v>
       </c>
       <c r="E164">
-        <v>2239.385009765625</v>
+        <v>2374.442626953125</v>
       </c>
       <c r="F164">
-        <v>195423232</v>
+        <v>191619072</v>
       </c>
       <c r="G164">
-        <v>2349.359474433847</v>
+        <v>2295.465732836671</v>
       </c>
       <c r="H164">
-        <v>2374.738879394531</v>
+        <v>2288.622058105469</v>
       </c>
       <c r="I164">
-        <v>2407.868798828125</v>
+        <v>2274.720760091146</v>
       </c>
       <c r="J164">
-        <v>2389.948160840311</v>
+        <v>2372.096764963876</v>
       </c>
       <c r="L164">
-        <v>30.19586020309556</v>
+        <v>82.27320505289914</v>
       </c>
       <c r="M164">
-        <v>29.22412028580326</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>72.67676552263755</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>2241.749755859375</v>
+        <v>2374.9326171875</v>
       </c>
       <c r="C165">
-        <v>2252.022216796875</v>
+        <v>2388.87060546875</v>
       </c>
       <c r="D165">
-        <v>2211.629150390625</v>
+        <v>2337.67578125</v>
       </c>
       <c r="E165">
-        <v>2211.629150390625</v>
+        <v>2344.427001953125</v>
       </c>
       <c r="F165">
-        <v>514077696</v>
+        <v>355321856</v>
       </c>
       <c r="G165">
-        <v>2336.838535884463</v>
+        <v>2299.916757301803</v>
       </c>
       <c r="H165">
-        <v>2362.193884277344</v>
+        <v>2292.349597167969</v>
       </c>
       <c r="I165">
-        <v>2399.638256835938</v>
+        <v>2278.92763671875</v>
       </c>
       <c r="J165">
-        <v>2387.586319642302</v>
+        <v>2371.730278036582</v>
       </c>
       <c r="L165">
-        <v>26.93393064930696</v>
+        <v>65.20708572503433</v>
       </c>
       <c r="M165">
-        <v>26.88436260286247</v>
-      </c>
-      <c r="N165" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>62.37171385336742</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>2211.949951171875</v>
+        <v>2343.558837890625</v>
       </c>
       <c r="C166">
-        <v>2242.330322265625</v>
+        <v>2349.611328125</v>
       </c>
       <c r="D166">
-        <v>2211.949951171875</v>
+        <v>2328.022705078125</v>
       </c>
       <c r="E166">
-        <v>2232.305908203125</v>
+        <v>2342.271484375</v>
       </c>
       <c r="F166">
-        <v>174450688</v>
+        <v>248642560</v>
       </c>
       <c r="G166">
-        <v>2327.335569731614</v>
+        <v>2303.767187035729</v>
       </c>
       <c r="H166">
-        <v>2350.318908691406</v>
+        <v>2295.8056640625</v>
       </c>
       <c r="I166">
-        <v>2391.925724283854</v>
+        <v>2282.946012369792</v>
       </c>
       <c r="J166">
-        <v>2385.529625451054</v>
+        <v>2371.340095339077</v>
       </c>
       <c r="L166">
-        <v>32.99967837215856</v>
+        <v>64.13232923658256</v>
       </c>
       <c r="M166">
-        <v>31.29718465930093</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>61.69517206976822</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>2232.243896484375</v>
+        <v>2342.03076171875</v>
       </c>
       <c r="C167">
-        <v>2261.384521484375</v>
+        <v>2343.78857421875</v>
       </c>
       <c r="D167">
-        <v>2227.4208984375</v>
+        <v>2329.759765625</v>
       </c>
       <c r="E167">
-        <v>2242.69873046875</v>
+        <v>2339.97314453125</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>91679744</v>
       </c>
       <c r="G167">
-        <v>2319.641311616808</v>
+        <v>2307.05863771714</v>
       </c>
       <c r="H167">
-        <v>2338.76572265625</v>
+        <v>2299.391967773438</v>
       </c>
       <c r="I167">
-        <v>2383.757430013021</v>
+        <v>2287.740445963542</v>
       </c>
       <c r="J167">
-        <v>2383.637825517514</v>
+        <v>2370.924639036987</v>
       </c>
       <c r="L167">
-        <v>36.00385851227039</v>
+        <v>62.88894658205464</v>
       </c>
       <c r="M167">
-        <v>33.47066186762716</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>60.93619330158754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>2242.859619140625</v>
+        <v>2339.693359375</v>
       </c>
       <c r="C168">
-        <v>2246.695068359375</v>
+        <v>2341.263916015625</v>
       </c>
       <c r="D168">
-        <v>2218.5673828125</v>
+        <v>2280.978271484375</v>
       </c>
       <c r="E168">
-        <v>2233.191650390625</v>
+        <v>2298.592529296875</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>872950784</v>
       </c>
       <c r="G168">
-        <v>2311.782251505337</v>
+        <v>2306.288991497116</v>
       </c>
       <c r="H168">
-        <v>2326.768493652344</v>
+        <v>2299.966064453125</v>
       </c>
       <c r="I168">
-        <v>2376.13154296875</v>
+        <v>2289.241837565104</v>
       </c>
       <c r="J168">
-        <v>2381.645160946297</v>
+        <v>2369.966597848376</v>
       </c>
       <c r="L168">
-        <v>34.41577683707491</v>
+        <v>45.1560712593162</v>
       </c>
       <c r="M168">
-        <v>32.45904823641939</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>49.20035615207178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>2233.88818359375</v>
+        <v>2298.545166015625</v>
       </c>
       <c r="C169">
-        <v>2242.82373046875</v>
+        <v>2329.38720703125</v>
       </c>
       <c r="D169">
-        <v>2205.773193359375</v>
+        <v>2293.16943359375</v>
       </c>
       <c r="E169">
-        <v>2213.702392578125</v>
+        <v>2324.988525390625</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>172976128</v>
       </c>
       <c r="G169">
-        <v>2302.865900693772</v>
+        <v>2307.988949123799</v>
       </c>
       <c r="H169">
-        <v>2313.855871582031</v>
+        <v>2302.065710449219</v>
       </c>
       <c r="I169">
-        <v>2366.895719401042</v>
+        <v>2291.503426106771</v>
       </c>
       <c r="J169">
-        <v>2379.420753418241</v>
+        <v>2369.370861789333</v>
       </c>
       <c r="L169">
-        <v>31.23810437117147</v>
+        <v>54.38596968798775</v>
       </c>
       <c r="M169">
-        <v>30.42871722261179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>55.1359361143225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>2212.047607421875</v>
+        <v>2328.89501953125</v>
       </c>
       <c r="C170">
-        <v>2237.851318359375</v>
+        <v>2348.69580078125</v>
       </c>
       <c r="D170">
-        <v>2197.65673828125</v>
+        <v>2311.731201171875</v>
       </c>
       <c r="E170">
-        <v>2232.91357421875</v>
+        <v>2322.056396484375</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>309321728</v>
       </c>
       <c r="G170">
-        <v>2296.506598286952</v>
+        <v>2309.26780797476</v>
       </c>
       <c r="H170">
-        <v>2302.142980957031</v>
+        <v>2304.139697265625</v>
       </c>
       <c r="I170">
-        <v>2358.351318359375</v>
+        <v>2293.66044921875</v>
       </c>
       <c r="J170">
-        <v>2377.480260978513</v>
+        <v>2368.744180129665</v>
       </c>
       <c r="L170">
-        <v>37.6247811327437</v>
+        <v>53.26572287854856</v>
       </c>
       <c r="M170">
-        <v>34.76067286939086</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>54.37589239002692</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>2233.969970703125</v>
+        <v>2322.944091796875</v>
       </c>
       <c r="C171">
-        <v>2237.9033203125</v>
+        <v>2323.3740234375</v>
       </c>
       <c r="D171">
-        <v>2206.927001953125</v>
+        <v>2264.443603515625</v>
       </c>
       <c r="E171">
-        <v>2216.318603515625</v>
+        <v>2282.853759765625</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>639842304</v>
       </c>
       <c r="G171">
-        <v>2289.216780580467</v>
+        <v>2306.866530864838</v>
       </c>
       <c r="H171">
-        <v>2289.328649902344</v>
+        <v>2304.809106445312</v>
       </c>
       <c r="I171">
-        <v>2349.542895507812</v>
+        <v>2294.134724934896</v>
       </c>
       <c r="J171">
-        <v>2375.345669488939</v>
+        <v>2367.60655866789</v>
       </c>
       <c r="L171">
-        <v>34.50987202438498</v>
+        <v>40.66639771862384</v>
       </c>
       <c r="M171">
-        <v>32.85742807188765</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>45.37064444566823</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>2216.34326171875</v>
+        <v>2282.17529296875</v>
       </c>
       <c r="C172">
-        <v>2225.863037109375</v>
+        <v>2287.29638671875</v>
       </c>
       <c r="D172">
-        <v>2203.441162109375</v>
+        <v>2243.57177734375</v>
       </c>
       <c r="E172">
-        <v>2225.74853515625</v>
+        <v>2256.04638671875</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>379511808</v>
       </c>
       <c r="G172">
-        <v>2283.446940087357</v>
+        <v>2302.246517760649</v>
       </c>
       <c r="H172">
-        <v>2277.997192382812</v>
+        <v>2304.932678222656</v>
       </c>
       <c r="I172">
-        <v>2341.157649739583</v>
+        <v>2293.551896158854</v>
       </c>
       <c r="J172">
-        <v>2373.364250491155</v>
+        <v>2366.128940496378</v>
       </c>
       <c r="L172">
-        <v>37.80168096835697</v>
+        <v>34.40571678309511</v>
       </c>
       <c r="M172">
-        <v>35.03417612617601</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>40.43878147558686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>2225.910400390625</v>
+        <v>2255.89111328125</v>
       </c>
       <c r="C173">
-        <v>2240.380859375</v>
+        <v>2275.34326171875</v>
       </c>
       <c r="D173">
-        <v>2217.13671875</v>
+        <v>2252.313720703125</v>
       </c>
       <c r="E173">
-        <v>2230.82275390625</v>
+        <v>2270.618408203125</v>
       </c>
       <c r="F173">
-        <v>6474752</v>
+        <v>208007168</v>
       </c>
       <c r="G173">
-        <v>2278.662923161802</v>
+        <v>2299.371235073601</v>
       </c>
       <c r="H173">
-        <v>2267.821130371094</v>
+        <v>2305.610534667969</v>
       </c>
       <c r="I173">
-        <v>2333.2197265625</v>
+        <v>2293.996891276042</v>
       </c>
       <c r="J173">
-        <v>2371.47628364897</v>
+        <v>2364.863900333553</v>
       </c>
       <c r="L173">
-        <v>39.63835880355369</v>
+        <v>40.04981381147809</v>
       </c>
       <c r="M173">
-        <v>36.23217692510443</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>44.00212604792748</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>2230.473388671875</v>
+        <v>2270.234619140625</v>
       </c>
       <c r="C174">
-        <v>2232.5263671875</v>
+        <v>2275.955322265625</v>
       </c>
       <c r="D174">
-        <v>2182.32958984375</v>
+        <v>2263.976318359375</v>
       </c>
       <c r="E174">
-        <v>2189.84814453125</v>
+        <v>2264.14453125</v>
       </c>
       <c r="F174">
-        <v>199968768</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>2270.588852377206</v>
+        <v>2296.168807453274</v>
       </c>
       <c r="H174">
-        <v>2256.352844238281</v>
+        <v>2305.246130371094</v>
       </c>
       <c r="I174">
-        <v>2324.131901041667</v>
+        <v>2293.947111002604</v>
       </c>
       <c r="J174">
-        <v>2369.070612932179</v>
+        <v>2363.529868954963</v>
       </c>
       <c r="L174">
-        <v>31.25417888207328</v>
+        <v>38.3984624988943</v>
       </c>
       <c r="M174">
-        <v>31.2248808969294</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>42.77767687288175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>2187.790283203125</v>
+        <v>2264.250244140625</v>
       </c>
       <c r="C175">
-        <v>2222.682861328125</v>
+        <v>2305.846435546875</v>
       </c>
       <c r="D175">
-        <v>2173.6865234375</v>
+        <v>2261.39404296875</v>
       </c>
       <c r="E175">
-        <v>2217.568115234375</v>
+        <v>2289.143310546875</v>
       </c>
       <c r="F175">
-        <v>505402368</v>
+        <v>169321472</v>
       </c>
       <c r="G175">
-        <v>2265.768785364221</v>
+        <v>2295.530125916328</v>
       </c>
       <c r="H175">
-        <v>2248.0568359375</v>
+        <v>2306.729345703125</v>
       </c>
       <c r="I175">
-        <v>2315.966536458333</v>
+        <v>2294.589347330729</v>
       </c>
       <c r="J175">
-        <v>2367.063957333533</v>
+        <v>2362.544616525717</v>
       </c>
       <c r="L175">
-        <v>40.78645198874381</v>
+        <v>47.75637832735413</v>
       </c>
       <c r="M175">
-        <v>37.51616298142282</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>48.71262121891363</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>2217.341796875</v>
+        <v>2288.0263671875</v>
       </c>
       <c r="C176">
-        <v>2228.600341796875</v>
+        <v>2309.842529296875</v>
       </c>
       <c r="D176">
-        <v>2212.36279296875</v>
+        <v>2272.34326171875</v>
       </c>
       <c r="E176">
-        <v>2218.220703125</v>
+        <v>2303.433837890625</v>
       </c>
       <c r="F176">
-        <v>71690240</v>
+        <v>143404032</v>
       </c>
       <c r="G176">
-        <v>2261.446232433383</v>
+        <v>2296.248645186718</v>
       </c>
       <c r="H176">
-        <v>2240.209790039063</v>
+        <v>2308.726049804688</v>
       </c>
       <c r="I176">
-        <v>2307.580379231771</v>
+        <v>2295.598803710937</v>
       </c>
       <c r="J176">
-        <v>2365.092523502956</v>
+        <v>2361.761692305385</v>
       </c>
       <c r="L176">
-        <v>41.0031116430271</v>
+        <v>52.40604045128811</v>
       </c>
       <c r="M176">
-        <v>37.66074036944529</v>
+        <v>51.79080923547303</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7043,37 +7031,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>2217.44189453125</v>
+        <v>2303.8701171875</v>
       </c>
       <c r="C177">
-        <v>2235.7421875</v>
+        <v>2307.983154296875</v>
       </c>
       <c r="D177">
-        <v>2211.151611328125</v>
+        <v>2289.802490234375</v>
       </c>
       <c r="E177">
-        <v>2221.72021484375</v>
+        <v>2303.628662109375</v>
       </c>
       <c r="F177">
-        <v>131557376</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>2257.834776288871</v>
+        <v>2296.919555816051</v>
       </c>
       <c r="H177">
-        <v>2235.367590332031</v>
+        <v>2310.201489257813</v>
       </c>
       <c r="I177">
-        <v>2299.178971354167</v>
+        <v>2296.778190104167</v>
       </c>
       <c r="J177">
-        <v>2363.193552527338</v>
+        <v>2360.991718395504</v>
       </c>
       <c r="L177">
-        <v>42.27727396471354</v>
+        <v>52.47091804830149</v>
       </c>
       <c r="M177">
-        <v>38.48276086222281</v>
+        <v>51.83325274918722</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7081,37 +7069,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>2221.908935546875</v>
+        <v>2303.7060546875</v>
       </c>
       <c r="C178">
-        <v>2227.472900390625</v>
+        <v>2317.68701171875</v>
       </c>
       <c r="D178">
-        <v>2196.14013671875</v>
+        <v>2299.051025390625</v>
       </c>
       <c r="E178">
-        <v>2196.14013671875</v>
+        <v>2301.3330078125</v>
       </c>
       <c r="F178">
-        <v>193323008</v>
+        <v>69584896</v>
       </c>
       <c r="G178">
-        <v>2252.226172691587</v>
+        <v>2297.320778724819</v>
       </c>
       <c r="H178">
-        <v>2229.643310546875</v>
+        <v>2310.485363769531</v>
       </c>
       <c r="I178">
-        <v>2289.945768229167</v>
+        <v>2297.252270507813</v>
       </c>
       <c r="J178">
-        <v>2360.980924503383</v>
+        <v>2360.201536798379</v>
       </c>
       <c r="L178">
-        <v>35.90122234756343</v>
+        <v>51.53959576593024</v>
       </c>
       <c r="M178">
-        <v>34.86386841649444</v>
+        <v>51.26057124327345</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7119,37 +7107,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>2196.61865234375</v>
+        <v>2301.23291015625</v>
       </c>
       <c r="C179">
-        <v>2257.311767578125</v>
+        <v>2317.630126953125</v>
       </c>
       <c r="D179">
-        <v>2196.61865234375</v>
+        <v>2296.369140625</v>
       </c>
       <c r="E179">
-        <v>2253.55078125</v>
+        <v>2313.861328125</v>
       </c>
       <c r="F179">
-        <v>909838336</v>
+        <v>123362304</v>
       </c>
       <c r="G179">
-        <v>2252.346591651442</v>
+        <v>2298.824465033926</v>
       </c>
       <c r="H179">
-        <v>2225.464562988281</v>
+        <v>2310.340222167969</v>
       </c>
       <c r="I179">
-        <v>2282.665633138021</v>
+        <v>2298.281127929688</v>
       </c>
       <c r="J179">
-        <v>2359.558008698702</v>
+        <v>2359.587759200056</v>
       </c>
       <c r="L179">
-        <v>53.57825570539902</v>
+        <v>56.30156017651154</v>
       </c>
       <c r="M179">
-        <v>46.92696074477836</v>
+        <v>54.23246487973539</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7157,37 +7145,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>2253.444091796875</v>
+        <v>2313.22265625</v>
       </c>
       <c r="C180">
-        <v>2261.320556640625</v>
+        <v>2316.902587890625</v>
       </c>
       <c r="D180">
-        <v>2235.547607421875</v>
+        <v>2304.4775390625</v>
       </c>
       <c r="E180">
-        <v>2257.140869140625</v>
+        <v>2316.4970703125</v>
       </c>
       <c r="F180">
-        <v>254159872</v>
+        <v>66583040</v>
       </c>
       <c r="G180">
-        <v>2252.78243505955</v>
+        <v>2300.431065513797</v>
       </c>
       <c r="H180">
-        <v>2222.345751953125</v>
+        <v>2310.580639648438</v>
       </c>
       <c r="I180">
-        <v>2275.664615885417</v>
+        <v>2299.478474934896</v>
       </c>
       <c r="J180">
-        <v>2358.20149029396</v>
+        <v>2359.017021598896</v>
       </c>
       <c r="L180">
-        <v>54.46174481586024</v>
+        <v>57.29477396379</v>
       </c>
       <c r="M180">
-        <v>47.58073075313417</v>
+        <v>54.85612280541326</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7195,37 +7183,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>2256.79931640625</v>
+        <v>2317.058837890625</v>
       </c>
       <c r="C181">
-        <v>2280.3837890625</v>
+        <v>2323.053466796875</v>
       </c>
       <c r="D181">
-        <v>2252.574951171875</v>
+        <v>2282.230224609375</v>
       </c>
       <c r="E181">
-        <v>2257.345703125</v>
+        <v>2312.294921875</v>
       </c>
       <c r="F181">
-        <v>287749120</v>
+        <v>72792576</v>
       </c>
       <c r="G181">
-        <v>2253.197277610954</v>
+        <v>2301.509597910269</v>
       </c>
       <c r="H181">
-        <v>2224.636462402344</v>
+        <v>2310.722741699219</v>
       </c>
       <c r="I181">
-        <v>2268.489298502604</v>
+        <v>2300.906119791667</v>
       </c>
       <c r="J181">
-        <v>2356.865652053311</v>
+        <v>2358.398185840964</v>
       </c>
       <c r="L181">
-        <v>54.51730649679862</v>
+        <v>55.05058347020231</v>
       </c>
       <c r="M181">
-        <v>47.62037635579364</v>
+        <v>53.60204797813411</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7233,37 +7221,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>2258.335205078125</v>
+        <v>2312.271240234375</v>
       </c>
       <c r="C182">
-        <v>2261.684326171875</v>
+        <v>2321.331298828125</v>
       </c>
       <c r="D182">
-        <v>2252.8056640625</v>
+        <v>2310.329833984375</v>
       </c>
       <c r="E182">
-        <v>2253.548828125</v>
+        <v>2310.329833984375</v>
       </c>
       <c r="F182">
-        <v>18324480</v>
+        <v>65866240</v>
       </c>
       <c r="G182">
-        <v>2253.229236748595</v>
+        <v>2302.31143755337</v>
       </c>
       <c r="H182">
-        <v>2226.531750488281</v>
+        <v>2310.520947265625</v>
       </c>
       <c r="I182">
-        <v>2261.861669921875</v>
+        <v>2302.79794921875</v>
       </c>
       <c r="J182">
-        <v>2355.497217299294</v>
+        <v>2357.761518928957</v>
       </c>
       <c r="L182">
-        <v>53.16461587419092</v>
+        <v>53.93907866549559</v>
       </c>
       <c r="M182">
-        <v>46.91210777260474</v>
+        <v>52.99194454144926</v>
       </c>
     </row>
   </sheetData>
